--- a/_wallpage/HoangPlan.xlsx
+++ b/_wallpage/HoangPlan.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Tools\00_Eclipse_SimRel_2018_09\eclipse-jee-2019-03\git\hackerRank\_wallpage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Plan</t>
   </si>
@@ -81,6 +76,18 @@
   </si>
   <si>
     <t>Hello Dua Gang</t>
+  </si>
+  <si>
+    <t>27/4/2019</t>
+  </si>
+  <si>
+    <t>Buy SUV</t>
+  </si>
+  <si>
+    <t>Release IPO</t>
+  </si>
+  <si>
+    <t>Migrate to EU</t>
   </si>
 </sst>
 </file>
@@ -402,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -413,7 +420,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,8 +463,8 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="E4">
+        <v>23.5</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -473,8 +480,8 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="E5">
+        <v>7.5</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -490,8 +497,8 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="E6">
+        <v>610</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -508,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -561,6 +568,9 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -575,6 +585,9 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -589,6 +602,9 @@
       <c r="E12" t="s">
         <v>14</v>
       </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
@@ -600,24 +616,63 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <v>2028</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3">
+        <v>2038</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1">

--- a/_wallpage/HoangPlan.xlsx
+++ b/_wallpage/HoangPlan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Tools\00_Eclipse_SimRel_2018_09\eclipse-jee-2019-03\git\hackerRank\_wallpage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="CheckList_Web_20190713" sheetId="3" r:id="rId3"/>
     <sheet name="Timetable" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -347,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,8 +368,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -489,13 +506,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,9 +522,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,6 +535,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1072,6 +1093,12 @@
                 <c:pt idx="2">
                   <c:v>700</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1095,13 +1122,12 @@
             </a:ln>
           </c:spPr>
         </c:dropLines>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85469056"/>
-        <c:axId val="85483520"/>
+        <c:axId val="260075000"/>
+        <c:axId val="260075392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85469056"/>
+        <c:axId val="260075000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1141,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85483520"/>
+        <c:crossAx val="260075392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1123,7 +1149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85483520"/>
+        <c:axId val="260075392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85469056"/>
+        <c:crossAx val="260075000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1182,7 +1208,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1250,12 +1275,12 @@
         <c:gapWidth val="100"/>
         <c:gapDepth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="85689856"/>
-        <c:axId val="85691776"/>
+        <c:axId val="260072648"/>
+        <c:axId val="260073040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85689856"/>
+        <c:axId val="260072648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1293,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85691776"/>
+        <c:crossAx val="260073040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1276,7 +1301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85691776"/>
+        <c:axId val="260073040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1294,7 +1319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85689856"/>
+        <c:crossAx val="260072648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1429,7 +1454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1464,7 +1489,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1673,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,6 +2269,162 @@
       </c>
       <c r="D7">
         <v>700</v>
+      </c>
+      <c r="E7">
+        <v>700</v>
+      </c>
+      <c r="F7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>B7-B4</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <f t="shared" ref="C8:AL8" si="2">C7-C4</f>
+        <v>-10</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" si="2"/>
+        <v>-20</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" si="2"/>
+        <v>-38.5</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="2"/>
+        <v>-57</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>-775.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-794</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>-812.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>-831</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>-849.5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>-868</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>-886.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>-905</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>-923.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>-942</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>-968.5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>-995</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>-1021.5</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>-1048</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>-1074.5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>-1101</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>-1127.5</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>-1154</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>-1180.5</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>-1207</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="2"/>
+        <v>-1233.5</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>-1260</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="2"/>
+        <v>-1298.5</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>-1337</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>-1375.5</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>-1414</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="2"/>
+        <v>-1452.5</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>-1491</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="2"/>
+        <v>-1529.5</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="2"/>
+        <v>-1568</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="2"/>
+        <v>-1606.5</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="2"/>
+        <v>-1645</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +2756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2940,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,13 +3184,13 @@
       <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="13" t="s">
         <v>82</v>
       </c>
@@ -3021,13 +3202,13 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="13" t="s">
         <v>101</v>
       </c>
@@ -3042,13 +3223,13 @@
       <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="13" t="s">
         <v>100</v>
       </c>
@@ -3063,13 +3244,13 @@
       <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="13" t="s">
         <v>97</v>
       </c>
@@ -3084,14 +3265,14 @@
       <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>98</v>
       </c>
       <c r="I8" t="s">
@@ -3105,14 +3286,14 @@
       <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="21" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16" t="s">
         <v>99</v>
       </c>
       <c r="I9" t="s">
@@ -3126,14 +3307,14 @@
       <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="21" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16" t="s">
         <v>86</v>
       </c>
       <c r="I10" t="s">
@@ -3144,7 +3325,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="16" t="s">
         <v>87</v>
       </c>
       <c r="I11" t="s">
@@ -3155,7 +3336,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="16" t="s">
         <v>88</v>
       </c>
       <c r="I12" t="s">
@@ -3166,10 +3347,10 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H13" s="17"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="17"/>
+      <c r="H14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/_wallpage/HoangPlan.xlsx
+++ b/_wallpage/HoangPlan.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="1" r:id="rId1"/>
     <sheet name="Plan" sheetId="2" r:id="rId2"/>
     <sheet name="CheckList_Web_20190713" sheetId="3" r:id="rId3"/>
     <sheet name="Timetable" sheetId="4" r:id="rId4"/>
+    <sheet name="RESTfull" sheetId="5" r:id="rId5"/>
+    <sheet name="Draft" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
   <si>
     <t>Time</t>
   </si>
@@ -343,6 +345,87 @@
   </si>
   <si>
     <t>Family</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>RESTfull</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>PCX 150</t>
+  </si>
+  <si>
+    <t>Xpander AT 720</t>
+  </si>
+  <si>
+    <t>ENG -960</t>
+  </si>
+  <si>
+    <t>FRN - B</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Malta - 23000</t>
+  </si>
+  <si>
+    <t>Elec -10</t>
+  </si>
+  <si>
+    <t>E-bik 7.5</t>
+  </si>
+  <si>
+    <t>Pas 2.5 x 2</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Gap2</t>
+  </si>
+  <si>
+    <t>Gap1</t>
+  </si>
+  <si>
+    <t>Văn bằng 2 tiếng Anh</t>
+  </si>
+  <si>
+    <t>Công ty nước ngoài lương 10.000 USD/tháng</t>
+  </si>
+  <si>
+    <t>Lập công ty riêng</t>
+  </si>
+  <si>
+    <t>Cửa hàng bán đồ trẻ em</t>
+  </si>
+  <si>
+    <t>Nhà 15 tỉ</t>
+  </si>
+  <si>
+    <t>Xe 7 chỗ máy dầu</t>
+  </si>
+  <si>
+    <t>Lấy bằng Thạc sĩ</t>
+  </si>
+  <si>
+    <t>Lấy bằng tiến sĩ kinh tế</t>
+  </si>
+  <si>
+    <t>Định cư nước ngoài theo diện doanh nhân</t>
+  </si>
+  <si>
+    <t>Cống hiến</t>
   </si>
 </sst>
 </file>
@@ -352,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,12 +453,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,12 +482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -511,6 +596,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,7 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,6 +1191,12 @@
                 <c:pt idx="4">
                   <c:v>700</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1123,11 +1221,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="260075000"/>
-        <c:axId val="260075392"/>
+        <c:axId val="413672880"/>
+        <c:axId val="413670528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260075000"/>
+        <c:axId val="413672880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1239,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260075392"/>
+        <c:crossAx val="413670528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1149,7 +1247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260075392"/>
+        <c:axId val="413670528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260075000"/>
+        <c:crossAx val="413672880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1275,12 +1373,12 @@
         <c:gapWidth val="100"/>
         <c:gapDepth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="260072648"/>
-        <c:axId val="260073040"/>
+        <c:axId val="413671704"/>
+        <c:axId val="413668176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="260072648"/>
+        <c:axId val="413671704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1391,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260073040"/>
+        <c:crossAx val="413668176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260073040"/>
+        <c:axId val="413668176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1319,7 +1417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260072648"/>
+        <c:crossAx val="413671704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,16 +1443,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133348</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:rowOff>40663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>189033</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>188302</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1698,15 +1796,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM8"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -2276,155 +2375,317 @@
       <c r="F7">
         <v>700</v>
       </c>
+      <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
+        <v>700</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>B7-B4</f>
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="19">
+        <f>IF(ISNUMBER($B$7),B7-B4,"")</f>
         <v>0</v>
       </c>
-      <c r="C8" s="22">
-        <f t="shared" ref="C8:AL8" si="2">C7-C4</f>
+      <c r="C8" s="19">
+        <f t="shared" ref="C8:F8" si="2">IF(ISNUMBER(C7),C7-C4,"")</f>
         <v>-10</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <f t="shared" si="2"/>
         <v>-38.5</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <f t="shared" si="2"/>
         <v>-57</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>-775.5</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>-794</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>-812.5</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>-831</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>-849.5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>-868</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>-886.5</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>-905</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>-923.5</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>-942</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>-968.5</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="2"/>
-        <v>-995</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>-1021.5</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="2"/>
-        <v>-1048</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
-        <v>-1074.5</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="2"/>
-        <v>-1101</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>-1127.5</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="2"/>
-        <v>-1154</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="2"/>
-        <v>-1180.5</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="2"/>
-        <v>-1207</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="2"/>
-        <v>-1233.5</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="2"/>
-        <v>-1260</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="2"/>
-        <v>-1298.5</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="2"/>
-        <v>-1337</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="2"/>
-        <v>-1375.5</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="2"/>
-        <v>-1414</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="2"/>
-        <v>-1452.5</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="2"/>
-        <v>-1491</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="2"/>
-        <v>-1529.5</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="2"/>
-        <v>-1568</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="2"/>
-        <v>-1606.5</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" si="2"/>
-        <v>-1645</v>
+      <c r="G8" s="19">
+        <f t="shared" ref="G8" si="3">IF(ISNUMBER(G7),G7-G4,"")</f>
+        <v>-75.5</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" ref="H8" si="4">IF(ISNUMBER(H7),H7-H4,"")</f>
+        <v>-94</v>
+      </c>
+      <c r="I8" s="19" t="str">
+        <f t="shared" ref="I8" si="5">IF(ISNUMBER(I7),I7-I4,"")</f>
+        <v/>
+      </c>
+      <c r="J8" s="19" t="str">
+        <f t="shared" ref="J8" si="6">IF(ISNUMBER(J7),J7-J4,"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="19" t="str">
+        <f t="shared" ref="K8" si="7">IF(ISNUMBER(K7),K7-K4,"")</f>
+        <v/>
+      </c>
+      <c r="L8" s="19" t="str">
+        <f t="shared" ref="L8" si="8">IF(ISNUMBER(L7),L7-L4,"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="19" t="str">
+        <f t="shared" ref="M8" si="9">IF(ISNUMBER(M7),M7-M4,"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="19" t="str">
+        <f t="shared" ref="N8" si="10">IF(ISNUMBER(N7),N7-N4,"")</f>
+        <v/>
+      </c>
+      <c r="O8" s="19" t="str">
+        <f t="shared" ref="O8" si="11">IF(ISNUMBER(O7),O7-O4,"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="19" t="str">
+        <f t="shared" ref="P8" si="12">IF(ISNUMBER(P7),P7-P4,"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="19" t="str">
+        <f t="shared" ref="Q8" si="13">IF(ISNUMBER(Q7),Q7-Q4,"")</f>
+        <v/>
+      </c>
+      <c r="R8" s="19" t="str">
+        <f t="shared" ref="R8" si="14">IF(ISNUMBER(R7),R7-R4,"")</f>
+        <v/>
+      </c>
+      <c r="S8" s="19" t="str">
+        <f t="shared" ref="S8" si="15">IF(ISNUMBER(S7),S7-S4,"")</f>
+        <v/>
+      </c>
+      <c r="T8" s="19" t="str">
+        <f t="shared" ref="T8" si="16">IF(ISNUMBER(T7),T7-T4,"")</f>
+        <v/>
+      </c>
+      <c r="U8" s="19" t="str">
+        <f t="shared" ref="U8" si="17">IF(ISNUMBER(U7),U7-U4,"")</f>
+        <v/>
+      </c>
+      <c r="V8" s="19" t="str">
+        <f t="shared" ref="V8" si="18">IF(ISNUMBER(V7),V7-V4,"")</f>
+        <v/>
+      </c>
+      <c r="W8" s="19" t="str">
+        <f t="shared" ref="W8" si="19">IF(ISNUMBER(W7),W7-W4,"")</f>
+        <v/>
+      </c>
+      <c r="X8" s="19" t="str">
+        <f t="shared" ref="X8" si="20">IF(ISNUMBER(X7),X7-X4,"")</f>
+        <v/>
+      </c>
+      <c r="Y8" s="19" t="str">
+        <f t="shared" ref="Y8" si="21">IF(ISNUMBER(Y7),Y7-Y4,"")</f>
+        <v/>
+      </c>
+      <c r="Z8" s="19" t="str">
+        <f t="shared" ref="Z8" si="22">IF(ISNUMBER(Z7),Z7-Z4,"")</f>
+        <v/>
+      </c>
+      <c r="AA8" s="19" t="str">
+        <f t="shared" ref="AA8" si="23">IF(ISNUMBER(AA7),AA7-AA4,"")</f>
+        <v/>
+      </c>
+      <c r="AB8" s="19" t="str">
+        <f t="shared" ref="AB8" si="24">IF(ISNUMBER(AB7),AB7-AB4,"")</f>
+        <v/>
+      </c>
+      <c r="AC8" s="19" t="str">
+        <f t="shared" ref="AC8" si="25">IF(ISNUMBER(AC7),AC7-AC4,"")</f>
+        <v/>
+      </c>
+      <c r="AD8" s="19" t="str">
+        <f t="shared" ref="AD8" si="26">IF(ISNUMBER(AD7),AD7-AD4,"")</f>
+        <v/>
+      </c>
+      <c r="AE8" s="19" t="str">
+        <f t="shared" ref="AE8" si="27">IF(ISNUMBER(AE7),AE7-AE4,"")</f>
+        <v/>
+      </c>
+      <c r="AF8" s="19" t="str">
+        <f t="shared" ref="AF8" si="28">IF(ISNUMBER(AF7),AF7-AF4,"")</f>
+        <v/>
+      </c>
+      <c r="AG8" s="19" t="str">
+        <f t="shared" ref="AG8" si="29">IF(ISNUMBER(AG7),AG7-AG4,"")</f>
+        <v/>
+      </c>
+      <c r="AH8" s="19" t="str">
+        <f t="shared" ref="AH8" si="30">IF(ISNUMBER(AH7),AH7-AH4,"")</f>
+        <v/>
+      </c>
+      <c r="AI8" s="19" t="str">
+        <f t="shared" ref="AI8" si="31">IF(ISNUMBER(AI7),AI7-AI4,"")</f>
+        <v/>
+      </c>
+      <c r="AJ8" s="19" t="str">
+        <f t="shared" ref="AJ8" si="32">IF(ISNUMBER(AJ7),AJ7-AJ4,"")</f>
+        <v/>
+      </c>
+      <c r="AK8" s="19" t="str">
+        <f t="shared" ref="AK8" si="33">IF(ISNUMBER(AK7),AK7-AK4,"")</f>
+        <v/>
+      </c>
+      <c r="AL8" s="19" t="str">
+        <f t="shared" ref="AL8" si="34">IF(ISNUMBER(AL7),AL7-AL4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="20">
+        <f>IF(ISNUMBER(B7),B7-B6,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <f t="shared" ref="C9:AL9" si="35">IF(ISNUMBER(C7),C7-C6,"")</f>
+        <v>-63.888888888888914</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="35"/>
+        <v>-127.77777777777783</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="35"/>
+        <v>-191.66666666666674</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="35"/>
+        <v>-255.55555555555566</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="35"/>
+        <v>-319.44444444444457</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="35"/>
+        <v>-383.33333333333348</v>
+      </c>
+      <c r="I9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="R9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="S9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="T9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="U9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="V9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="W9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="X9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Y9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Z9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AA9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AB9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AC9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AD9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AE9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AF9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AG9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AH9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AI9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AJ9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AK9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="AL9" s="20" t="str">
+        <f t="shared" si="35"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2700,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,7 +3017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -3121,7 +3382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -3139,17 +3400,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -3184,13 +3445,13 @@
       <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="13" t="s">
         <v>82</v>
       </c>
@@ -3202,13 +3463,13 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="13" t="s">
         <v>101</v>
       </c>
@@ -3223,13 +3484,13 @@
       <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="13" t="s">
         <v>100</v>
       </c>
@@ -3244,13 +3505,13 @@
       <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="13" t="s">
         <v>97</v>
       </c>
@@ -3265,13 +3526,13 @@
       <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="16" t="s">
         <v>98</v>
       </c>
@@ -3286,13 +3547,13 @@
       <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="16" t="s">
         <v>99</v>
       </c>
@@ -3307,13 +3568,13 @@
       <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="16" t="s">
         <v>86</v>
       </c>
@@ -3365,4 +3626,381 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_wallpage/HoangPlan.xlsx
+++ b/_wallpage/HoangPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="135">
   <si>
     <t>Time</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>Cống hiến</t>
+  </si>
+  <si>
+    <t>Tập cách đặt câu hỏi và trả lời</t>
   </si>
 </sst>
 </file>
@@ -1221,25 +1224,24 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="413672880"/>
-        <c:axId val="413670528"/>
+        <c:axId val="217320400"/>
+        <c:axId val="217320792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413672880"/>
+        <c:axId val="217320400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="mmm\-yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413670528"/>
+        <c:crossAx val="217320792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1247,7 +1249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413670528"/>
+        <c:axId val="217320792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,14 +1257,13 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413672880"/>
+        <c:crossAx val="217320400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1272,7 +1273,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1373,25 +1373,24 @@
         <c:gapWidth val="100"/>
         <c:gapDepth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="413671704"/>
-        <c:axId val="413668176"/>
+        <c:axId val="217321184"/>
+        <c:axId val="217318832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="413671704"/>
+        <c:axId val="217321184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413668176"/>
+        <c:crossAx val="217318832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1399,7 +1398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413668176"/>
+        <c:axId val="217318832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1410,21 +1409,19 @@
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413671704"/>
+        <c:crossAx val="217321184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3821,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B22"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4000,6 +3997,14 @@
         <v>133</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_wallpage/HoangPlan.xlsx
+++ b/_wallpage/HoangPlan.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Property" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan" sheetId="2" r:id="rId2"/>
-    <sheet name="CheckList_Web_20190713" sheetId="3" r:id="rId3"/>
-    <sheet name="Timetable" sheetId="4" r:id="rId4"/>
-    <sheet name="RESTfull" sheetId="5" r:id="rId5"/>
-    <sheet name="Draft" sheetId="6" r:id="rId6"/>
+    <sheet name="Timetable (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="Property" sheetId="1" r:id="rId2"/>
+    <sheet name="Plan" sheetId="2" r:id="rId3"/>
+    <sheet name="CheckList_Web_20190713" sheetId="3" r:id="rId4"/>
+    <sheet name="Timetable" sheetId="4" r:id="rId5"/>
+    <sheet name="RESTfull" sheetId="5" r:id="rId6"/>
+    <sheet name="Draft" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="143">
   <si>
     <t>Time</t>
   </si>
@@ -380,15 +381,6 @@
     <t>Malta - 23000</t>
   </si>
   <si>
-    <t>Elec -10</t>
-  </si>
-  <si>
-    <t>E-bik 7.5</t>
-  </si>
-  <si>
-    <t>Pas 2.5 x 2</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -429,6 +421,39 @@
   </si>
   <si>
     <t>Tập cách đặt câu hỏi và trả lời</t>
+  </si>
+  <si>
+    <t>Xe đạp điện 7.5</t>
+  </si>
+  <si>
+    <t>Lò vi sóng có nướng  2.5 x2</t>
+  </si>
+  <si>
+    <t>Máy giặt electronic 10.</t>
+  </si>
+  <si>
+    <t>Get up</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Physical excersise</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Breaking time</t>
+  </si>
+  <si>
+    <t>Housework</t>
+  </si>
+  <si>
+    <t>Go to Church</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -489,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -558,11 +583,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -621,6 +672,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,11 +1296,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="217320400"/>
-        <c:axId val="217320792"/>
+        <c:axId val="252648976"/>
+        <c:axId val="252651720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217320400"/>
+        <c:axId val="252648976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1313,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217320792"/>
+        <c:crossAx val="252651720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217320792"/>
+        <c:axId val="252651720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217320400"/>
+        <c:crossAx val="252648976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1373,24 +1445,25 @@
         <c:gapWidth val="100"/>
         <c:gapDepth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="217321184"/>
-        <c:axId val="217318832"/>
+        <c:axId val="252654464"/>
+        <c:axId val="252654856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="217321184"/>
+        <c:axId val="252654464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217318832"/>
+        <c:crossAx val="252654856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1398,7 +1471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217318832"/>
+        <c:axId val="252654856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1409,19 +1482,21 @@
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217321184"/>
+        <c:crossAx val="252654464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1793,6 +1868,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26">
+        <v>6.3</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
+        <v>8</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>10</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
+        <v>12</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
+        <v>13</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <v>15</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
+        <v>17</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
+        <v>19</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>21</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+      <c r="C23" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>23</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+      <c r="C25" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="82">
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2381,7 +3010,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B8" s="19">
         <f>IF(ISNUMBER($B$7),B7-B4,"")</f>
@@ -2534,7 +3163,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="20">
         <f>IF(ISNUMBER(B7),B7-B6,"")</f>
@@ -2692,7 +3321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -3010,7 +3639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -3375,12 +4004,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +4254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F23"/>
   <sheetViews>
@@ -3679,7 +4308,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -3816,12 +4445,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,7 +4527,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +4535,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +4543,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +4551,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +4567,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +4575,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +4583,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +4591,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,7 +4599,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +4607,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3986,7 +4615,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +4623,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,7 +4631,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/_wallpage/HoangPlan.xlsx
+++ b/_wallpage/HoangPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable (2)" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="147">
   <si>
     <t>Time</t>
   </si>
@@ -454,6 +454,18 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>Nhà Gò Vấp</t>
+  </si>
+  <si>
+    <t>Nhà Hóc Môn</t>
+  </si>
+  <si>
+    <t>Khách sạn Đà Lạt</t>
+  </si>
+  <si>
+    <t>Khách sạn Đà Nẵng</t>
   </si>
 </sst>
 </file>
@@ -657,6 +669,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,27 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,24 +1308,25 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="252648976"/>
-        <c:axId val="252651720"/>
+        <c:axId val="227320816"/>
+        <c:axId val="227316896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="252648976"/>
+        <c:axId val="227320816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="mmm\-yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252651720"/>
+        <c:crossAx val="227316896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252651720"/>
+        <c:axId val="227316896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,13 +1342,14 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252648976"/>
+        <c:crossAx val="227320816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,6 +1359,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1445,12 +1460,12 @@
         <c:gapWidth val="100"/>
         <c:gapDepth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="252654464"/>
-        <c:axId val="252654856"/>
+        <c:axId val="227318856"/>
+        <c:axId val="227321208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="252654464"/>
+        <c:axId val="227318856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1478,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252654856"/>
+        <c:crossAx val="227321208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1471,7 +1486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252654856"/>
+        <c:axId val="227321208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1489,7 +1504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="252654464"/>
+        <c:crossAx val="227318856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1870,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
@@ -1883,45 +1898,45 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -1947,367 +1962,367 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>6.3</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="22" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>8</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>10</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>12</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26">
+      <c r="B14" s="24">
         <v>13</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="22" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>15</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>17</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <v>19</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>21</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>23</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="18" t="s">
         <v>136</v>
       </c>
@@ -2332,67 +2347,11 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
@@ -2409,11 +2368,67 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3643,7 +3658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -4026,17 +4041,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -4071,13 +4086,13 @@
       <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="13" t="s">
         <v>82</v>
       </c>
@@ -4089,13 +4104,13 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="13" t="s">
         <v>101</v>
       </c>
@@ -4110,13 +4125,13 @@
       <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="13" t="s">
         <v>100</v>
       </c>
@@ -4131,13 +4146,13 @@
       <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="13" t="s">
         <v>97</v>
       </c>
@@ -4152,13 +4167,13 @@
       <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="16" t="s">
         <v>98</v>
       </c>
@@ -4173,13 +4188,13 @@
       <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="16" t="s">
         <v>99</v>
       </c>
@@ -4194,13 +4209,13 @@
       <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="16" t="s">
         <v>86</v>
       </c>
@@ -4447,10 +4462,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B23"/>
+  <dimension ref="A2:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,6 +4649,38 @@
         <v>131</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_wallpage/HoangPlan.xlsx
+++ b/_wallpage/HoangPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable (2)" sheetId="7" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="Timetable" sheetId="4" r:id="rId5"/>
     <sheet name="RESTfull" sheetId="5" r:id="rId6"/>
     <sheet name="Draft" sheetId="6" r:id="rId7"/>
+    <sheet name="Speding table" sheetId="8" r:id="rId8"/>
+    <sheet name="Links" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="179">
   <si>
     <t>Time</t>
   </si>
@@ -466,16 +468,113 @@
   </si>
   <si>
     <t>Khách sạn Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Chích ngừa DH</t>
+  </si>
+  <si>
+    <t>Sanh DH</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Tet BM</t>
+  </si>
+  <si>
+    <t>Tet MaN</t>
+  </si>
+  <si>
+    <t>Tet BaN</t>
+  </si>
+  <si>
+    <t>Tet Khang</t>
+  </si>
+  <si>
+    <t>Tet Ori</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>A.Phat</t>
+  </si>
+  <si>
+    <t>May tinh</t>
+  </si>
+  <si>
+    <t>May giat E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo vi song </t>
+  </si>
+  <si>
+    <t>Xe dap dien</t>
+  </si>
+  <si>
+    <t>c.Hoa cuoi</t>
+  </si>
+  <si>
+    <t>Tro cap</t>
+  </si>
+  <si>
+    <t>Tet Xmai</t>
+  </si>
+  <si>
+    <t>Tet Hippo</t>
+  </si>
+  <si>
+    <t>https://compumax.com.vn/laptop/lenovo-thinkpad-edge-e580-i5-7200u-8gb-128ss-500gb-2gb-15.6hd-w10p.html?gclid=EAIaIQobChMI45Hzw-T_5gIVBB4rCh3VQQ2tEAQYASABEgK0N_D_BwE</t>
+  </si>
+  <si>
+    <t>Vsmart Live</t>
+  </si>
+  <si>
+    <t>99 Trần Thiện Chánh, phường 12, quận 10, TpHCM</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Tả sữa</t>
+  </si>
+  <si>
+    <t>Bỏ túi</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Tiêu dùng</t>
+  </si>
+  <si>
+    <t>Lack</t>
+  </si>
+  <si>
+    <t>MaiKhoi cuoi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,8 +604,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +629,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,10 +753,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -672,6 +804,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,8 +867,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1284,6 +1454,12 @@
                 <c:pt idx="6">
                   <c:v>700</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>700</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1308,25 +1484,24 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="227320816"/>
-        <c:axId val="227316896"/>
+        <c:axId val="443410320"/>
+        <c:axId val="443414632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227320816"/>
+        <c:axId val="443410320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="mmm\-yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227316896"/>
+        <c:crossAx val="443414632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227316896"/>
+        <c:axId val="443414632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,14 +1517,13 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227320816"/>
+        <c:crossAx val="443410320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,7 +1533,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1460,25 +1633,24 @@
         <c:gapWidth val="100"/>
         <c:gapDepth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="227318856"/>
-        <c:axId val="227321208"/>
+        <c:axId val="443415024"/>
+        <c:axId val="443409928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="227318856"/>
+        <c:axId val="443415024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227321208"/>
+        <c:crossAx val="443409928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1486,7 +1658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227321208"/>
+        <c:axId val="443409928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1497,21 +1669,19 @@
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227318856"/>
+        <c:crossAx val="443415024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1898,16 +2068,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
@@ -1936,7 +2106,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+      <c r="B4" s="42">
         <v>5</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -1962,367 +2132,367 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="40" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+      <c r="B6" s="42">
         <v>6.3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="40" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+      <c r="B8" s="42">
         <v>8</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="40" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
+      <c r="B10" s="42">
         <v>10</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
+      <c r="B12" s="42">
         <v>12</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="40" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
+      <c r="B14" s="42">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="40" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+      <c r="B16" s="42">
         <v>15</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+      <c r="B18" s="42">
         <v>17</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="40" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
+      <c r="B20" s="42">
         <v>19</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24">
+      <c r="B22" s="42">
         <v>21</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="40" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
+      <c r="B24" s="42">
         <v>23</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="18" t="s">
         <v>136</v>
       </c>
@@ -2352,6 +2522,14 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
@@ -2379,15 +2557,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
@@ -2399,15 +2568,11 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
@@ -2418,6 +2583,11 @@
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I5:I6"/>
@@ -2439,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:AL9"/>
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,6 +3192,12 @@
       <c r="H7">
         <v>700</v>
       </c>
+      <c r="I7">
+        <v>700</v>
+      </c>
+      <c r="J7">
+        <v>700</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3055,13 +3231,13 @@
         <f t="shared" ref="H8" si="4">IF(ISNUMBER(H7),H7-H4,"")</f>
         <v>-94</v>
       </c>
-      <c r="I8" s="19" t="str">
+      <c r="I8" s="19">
         <f t="shared" ref="I8" si="5">IF(ISNUMBER(I7),I7-I4,"")</f>
-        <v/>
-      </c>
-      <c r="J8" s="19" t="str">
+        <v>-112.5</v>
+      </c>
+      <c r="J8" s="19">
         <f t="shared" ref="J8" si="6">IF(ISNUMBER(J7),J7-J4,"")</f>
-        <v/>
+        <v>-131</v>
       </c>
       <c r="K8" s="19" t="str">
         <f t="shared" ref="K8" si="7">IF(ISNUMBER(K7),K7-K4,"")</f>
@@ -3208,13 +3384,13 @@
         <f t="shared" si="35"/>
         <v>-383.33333333333348</v>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" s="20">
         <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="J9" s="20" t="str">
+        <v>-447.2222222222224</v>
+      </c>
+      <c r="J9" s="20">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-511.11111111111131</v>
       </c>
       <c r="K9" s="20" t="str">
         <f t="shared" si="35"/>
@@ -4041,17 +4217,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
@@ -4086,13 +4262,13 @@
       <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="13" t="s">
         <v>82</v>
       </c>
@@ -4104,13 +4280,13 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="13" t="s">
         <v>101</v>
       </c>
@@ -4125,13 +4301,13 @@
       <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="13" t="s">
         <v>100</v>
       </c>
@@ -4146,13 +4322,13 @@
       <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="13" t="s">
         <v>97</v>
       </c>
@@ -4167,13 +4343,13 @@
       <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="16" t="s">
         <v>98</v>
       </c>
@@ -4188,13 +4364,13 @@
       <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="16" t="s">
         <v>99</v>
       </c>
@@ -4209,13 +4385,13 @@
       <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="16" t="s">
         <v>86</v>
       </c>
@@ -4464,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4684,4 +4860,2847 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="31">
+        <v>43831</v>
+      </c>
+      <c r="I2" s="37">
+        <v>43862</v>
+      </c>
+      <c r="J2" s="29">
+        <v>43891</v>
+      </c>
+      <c r="K2" s="22">
+        <v>43922</v>
+      </c>
+      <c r="L2" s="22">
+        <v>43952</v>
+      </c>
+      <c r="M2" s="22">
+        <v>43983</v>
+      </c>
+      <c r="N2" s="22">
+        <v>44013</v>
+      </c>
+      <c r="O2" s="22">
+        <v>44044</v>
+      </c>
+      <c r="P2" s="22">
+        <v>44075</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>44105</v>
+      </c>
+      <c r="R2" s="22">
+        <v>44136</v>
+      </c>
+      <c r="S2" s="22">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3">
+        <f>SUM(C9:C137)</f>
+        <v>292.8</v>
+      </c>
+      <c r="D3">
+        <f>SUM(D9:D137)</f>
+        <v>47.8</v>
+      </c>
+      <c r="G3">
+        <f>C3-D3</f>
+        <v>245</v>
+      </c>
+      <c r="H3" s="33">
+        <f>SUMIF($E$9:$E$137,H2,$C$9:$C$137)-SUMIF($E$9:$E$137,H2,$D$9:$D$137)</f>
+        <v>6.7000000000000028</v>
+      </c>
+      <c r="I3" s="33">
+        <f>SUMIF($E$9:$E$137,I2,$C$9:$C$137)-SUMIF($E$9:$E$137,I2,$D$9:$D$137)</f>
+        <v>8</v>
+      </c>
+      <c r="J3" s="33">
+        <f>SUMIF($E$9:$E$137,J2,$C$9:$C$137)-SUMIF($E$9:$E$137,J2,$D$9:$D$137)</f>
+        <v>43.8</v>
+      </c>
+      <c r="K3" s="33">
+        <f>SUMIF($E$9:$E$137,K2,$C$9:$C$137)-SUMIF($E$9:$E$137,K2,$D$9:$D$137)</f>
+        <v>22</v>
+      </c>
+      <c r="L3" s="33">
+        <f>SUMIF($E$9:$E$137,L2,$C$9:$C$137)-SUMIF($E$9:$E$137,L2,$D$9:$D$137)</f>
+        <v>17</v>
+      </c>
+      <c r="M3" s="33">
+        <f>SUMIF($E$9:$E$137,M2,$C$9:$C$137)-SUMIF($E$9:$E$137,M2,$D$9:$D$137)</f>
+        <v>17</v>
+      </c>
+      <c r="N3" s="33">
+        <f>SUMIF($E$9:$E$137,N2,$C$9:$C$137)-SUMIF($E$9:$E$137,N2,$D$9:$D$137)</f>
+        <v>32</v>
+      </c>
+      <c r="O3" s="33">
+        <f>SUMIF($E$9:$E$137,O2,$C$9:$C$137)-SUMIF($E$9:$E$137,O2,$D$9:$D$137)</f>
+        <v>17</v>
+      </c>
+      <c r="P3" s="33">
+        <f>SUMIF($E$9:$E$137,P2,$C$9:$C$137)-SUMIF($E$9:$E$137,P2,$D$9:$D$137)</f>
+        <v>17</v>
+      </c>
+      <c r="Q3" s="33">
+        <f>SUMIF($E$9:$E$137,Q2,$C$9:$C$137)-SUMIF($E$9:$E$137,Q2,$D$9:$D$137)</f>
+        <v>17</v>
+      </c>
+      <c r="R3" s="33">
+        <f>SUMIF($E$9:$E$137,R2,$C$9:$C$137)-SUMIF($E$9:$E$137,R2,$D$9:$D$137)</f>
+        <v>17</v>
+      </c>
+      <c r="S3" s="33">
+        <f>SUMIF($E$9:$E$137,S2,$C$9:$C$137)-SUMIF($E$9:$E$137,S2,$D$9:$D$137)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="33">
+        <v>8</v>
+      </c>
+      <c r="I4" s="23">
+        <v>8</v>
+      </c>
+      <c r="J4" s="23">
+        <v>45</v>
+      </c>
+      <c r="K4" s="23">
+        <v>18</v>
+      </c>
+      <c r="L4" s="23">
+        <v>18</v>
+      </c>
+      <c r="M4" s="23">
+        <v>23</v>
+      </c>
+      <c r="N4" s="23">
+        <v>23</v>
+      </c>
+      <c r="O4" s="23">
+        <v>23</v>
+      </c>
+      <c r="P4" s="23">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>23</v>
+      </c>
+      <c r="R4" s="23">
+        <v>23</v>
+      </c>
+      <c r="S4" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="33">
+        <f>SUMIFS($C$9:$C$137,$E$9:$E$137,H2,$F$9:$F$137,$B5)-SUMIFS($D$9:$D$137,$E$9:$E$137,H2,$F$9:$F$137,$B5)</f>
+        <v>6.7000000000000028</v>
+      </c>
+      <c r="I5" s="33">
+        <f t="shared" ref="I5:S5" si="0">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B5)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B5)</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K5" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M5" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O5" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P5" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q5" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R5" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S5" s="33">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="33">
+        <f>SUMIFS($C$9:$C$137,$E$9:$E$137,H2,$F$9:$F$137,$B6)-SUMIFS($D$9:$D$137,$E$9:$E$137,H2,$F$9:$F$137,$B6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="33">
+        <f t="shared" ref="I6:S6" si="1">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B6)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B6)</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K6" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L6" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N6" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O6" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P6" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R6" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="S6" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="33">
+        <f>SUMIFS($C$9:$C$137,$E$9:$E$137,H2,$F$9:$F$137,$B7)-SUMIFS($D$9:$D$137,$E$9:$E$137,H2,$F$9:$F$137,$B7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" ref="I7:S7" si="2">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B7)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="33">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O7" s="33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P7" s="33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R7" s="33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S7" s="33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="33">
+        <f>H4-H3</f>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="I8" s="33">
+        <f>I4-I3</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" ref="J8:S8" si="3">J4-J3</f>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="K8" s="33">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="L8" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="33">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N8" s="33">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+      <c r="O8" s="33">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P8" s="33">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q8" s="33">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R8" s="33">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S8" s="33">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28">
+        <f>SUM(H9:S9)</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="51">
+        <v>43831</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="28" t="str">
+        <f>IF(C9&gt;D9,"In progress", "Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="H9" s="28">
+        <v>5</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>2</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="34">
+        <v>5</v>
+      </c>
+      <c r="D10" s="34">
+        <f>SUM(H10:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="35">
+        <v>43862</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="34" t="str">
+        <f>IF(C10&gt;D10,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" ref="D11:D22" si="4">SUM(H11:S11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="51">
+        <v>43891</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="28" t="str">
+        <f t="shared" ref="G11:G20" si="5">IF(C11&gt;D11,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="51">
+        <v>43922</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="51">
+        <v>43952</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="51">
+        <v>43983</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="51">
+        <v>44013</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="51">
+        <v>44044</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress</v>
+      </c>
+      <c r="H16" s="28">
+        <v>0</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="51">
+        <v>44075</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="51">
+        <v>44105</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress</v>
+      </c>
+      <c r="H18" s="28">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="51">
+        <v>44136</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="51">
+        <v>44166</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress</v>
+      </c>
+      <c r="H20" s="28">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="28">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="51">
+        <v>43831</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f>IF(C21&gt;D21,"In progress", "Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="H21" s="28">
+        <v>3</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>14</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="D22" s="34">
+        <f t="shared" si="4"/>
+        <v>1.3</v>
+      </c>
+      <c r="E22" s="35">
+        <v>43862</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="34" t="str">
+        <f>IF(C22&gt;D22,"In progress", "Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="53">
+        <v>1.3</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="28">
+        <f>SUM(H23:S23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="51">
+        <v>43891</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f>IF(C23&gt;D23,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H23" s="28">
+        <v>0</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="28">
+        <f t="shared" ref="D24:D44" si="6">SUM(H24:S24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="51">
+        <v>43922</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f t="shared" ref="G24:G44" si="7">IF(C24&gt;D24,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H24" s="28">
+        <v>0</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="51">
+        <v>43952</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H25" s="28">
+        <v>0</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="51">
+        <v>43983</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H26" s="28">
+        <v>0</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="51">
+        <v>44013</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H27" s="28">
+        <v>0</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="51">
+        <v>44044</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H28" s="28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="51">
+        <v>44075</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H29" s="28">
+        <v>0</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="51">
+        <v>44105</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H30" s="28">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="51">
+        <v>44136</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H31" s="28">
+        <v>0</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="51">
+        <v>44166</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H32" s="28">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" s="28">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E33" s="51">
+        <v>43831</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>Done</v>
+      </c>
+      <c r="H33" s="28">
+        <v>5</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="35">
+        <v>43862</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="34" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H34" s="34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="53">
+        <v>0</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="51">
+        <v>43891</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H35" s="28">
+        <v>0</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="51">
+        <v>43922</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H36" s="28">
+        <v>0</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="51">
+        <v>43952</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H37" s="28">
+        <v>0</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="51">
+        <v>43983</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H38" s="28">
+        <v>0</v>
+      </c>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="51">
+        <v>44013</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H39" s="28">
+        <v>0</v>
+      </c>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="51">
+        <v>44044</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H40" s="28">
+        <v>0</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="51">
+        <v>44075</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H41" s="28">
+        <v>0</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="51">
+        <v>44105</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H42" s="28">
+        <v>0</v>
+      </c>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="51">
+        <v>44136</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H43" s="28">
+        <v>0</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="51">
+        <v>44166</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>In progress</v>
+      </c>
+      <c r="H44" s="28">
+        <v>0</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="28">
+        <v>30</v>
+      </c>
+      <c r="D45" s="28">
+        <f>SUM(H45:S45)</f>
+        <v>29</v>
+      </c>
+      <c r="E45" s="51">
+        <v>43831</v>
+      </c>
+      <c r="F45" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="28" t="str">
+        <f>IF(C45&gt;D45,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H45" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="30">
+        <v>19</v>
+      </c>
+      <c r="D46" s="30">
+        <f>SUM(H46:S46)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="39">
+        <v>43891</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="30" t="str">
+        <f t="shared" ref="G46:G60" si="8">IF(C46&gt;D46,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H46" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="32">
+        <v>2</v>
+      </c>
+      <c r="D47" s="32">
+        <f>SUM(I52:S52)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="36">
+        <v>43831</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="32" t="str">
+        <f>IF(C47&gt;D47,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H47" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="32">
+        <v>2</v>
+      </c>
+      <c r="D48" s="32">
+        <f>SUM(I53:S53)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="36">
+        <v>43831</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="32" t="str">
+        <f>IF(C48&gt;D48,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H48" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="32">
+        <v>1</v>
+      </c>
+      <c r="D49" s="32">
+        <f>SUM(H49:S49)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="36">
+        <v>43831</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="32" t="str">
+        <f>IF(C49&gt;D49,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H49" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="32">
+        <f>SUM(H50:S50)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="36">
+        <v>43831</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="32" t="str">
+        <f>IF(C50&gt;D50,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H50" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="32">
+        <v>4</v>
+      </c>
+      <c r="D51" s="32">
+        <f>SUM(H51:S51)</f>
+        <v>4</v>
+      </c>
+      <c r="E51" s="36">
+        <v>43831</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v>Done</v>
+      </c>
+      <c r="H51" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="32">
+        <f>SUM(H52:S52)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="36">
+        <v>43831</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="32" t="str">
+        <f>IF(C52&gt;D52,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H52" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="32">
+        <f>SUM(H53:S53)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="36">
+        <v>43831</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="32" t="str">
+        <f>IF(C53&gt;D53,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H53" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>46</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="32">
+        <f>SUM(H54:S54)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="36">
+        <v>43831</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v>Done</v>
+      </c>
+      <c r="H54" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <f>SUM(H55:S55)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="25">
+        <v>44013</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="8"/>
+        <v>In progress</v>
+      </c>
+      <c r="H55" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <f>SUM(H56:S56)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="25">
+        <v>43922</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="8"/>
+        <v>In progress</v>
+      </c>
+      <c r="H56" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>49</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D57" s="26">
+        <f>SUM(H57:S57)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v>In progress</v>
+      </c>
+      <c r="H57" s="28">
+        <v>0</v>
+      </c>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="28"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="30">
+        <v>8</v>
+      </c>
+      <c r="D58" s="30">
+        <f>SUM(H58:S58)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="39">
+        <v>43891</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" s="30" t="str">
+        <f t="shared" si="8"/>
+        <v>In progress</v>
+      </c>
+      <c r="H58" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <f>SUM(H59:S59)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="25">
+        <v>44166</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="8"/>
+        <v>In progress</v>
+      </c>
+      <c r="H59" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>52</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="30">
+        <v>3.8</v>
+      </c>
+      <c r="D60" s="30">
+        <f>SUM(H60:S60)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="39">
+        <v>43891</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60" s="30" t="str">
+        <f t="shared" si="8"/>
+        <v>In progress</v>
+      </c>
+      <c r="H60" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <f>SUM(H61:S61)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="25">
+        <v>43952</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G61" t="str">
+        <f>IF(C61&gt;D61,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H61" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <f>SUM(H62:S62)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="25">
+        <v>43983</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" t="str">
+        <f>IF(C62&gt;D62,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H62" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <f>SUM(H63:S63)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="25">
+        <v>44013</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" t="str">
+        <f>IF(C63&gt;D63,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H63" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>56</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <f>SUM(H64:S64)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="25">
+        <v>44044</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" t="str">
+        <f>IF(C64&gt;D64,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H64" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>57</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <f>SUM(H65:S65)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="25">
+        <v>44075</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" t="str">
+        <f>IF(C65&gt;D65,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H65" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <f>SUM(H66:S66)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="25">
+        <v>44105</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" t="str">
+        <f>IF(C66&gt;D66,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H66" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <f>SUM(H67:S67)</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="25">
+        <v>44136</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" t="str">
+        <f>IF(C67&gt;D67,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H67" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <f>SUM(H68:S68)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="25">
+        <v>44166</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G68" t="str">
+        <f>IF(C68&gt;D68,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H68" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>61</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="34">
+        <v>1</v>
+      </c>
+      <c r="D69" s="34">
+        <f>SUM(H69:S69)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="38">
+        <v>43862</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="34" t="str">
+        <f>IF(C69&gt;D69,"In progress", "Done")</f>
+        <v>In progress</v>
+      </c>
+      <c r="H69" s="34">
+        <v>0</v>
+      </c>
+      <c r="I69" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_wallpage/HoangPlan.xlsx
+++ b/_wallpage/HoangPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable (2)" sheetId="7" r:id="rId1"/>
@@ -22,12 +22,16 @@
     <sheet name="Speding table" sheetId="8" r:id="rId8"/>
     <sheet name="Links" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Speding table'!$A$2:$S$69</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="7">'Speding table'!$H$2:$S$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="177">
   <si>
     <t>Time</t>
   </si>
@@ -275,30 +279,9 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>5.00 - 6.30</t>
-  </si>
-  <si>
     <t>6.30 - 8.00</t>
   </si>
   <si>
-    <t>8.00 - 17.00</t>
-  </si>
-  <si>
-    <t>17.00 -19.00</t>
-  </si>
-  <si>
-    <t>19.00 - 20.00</t>
-  </si>
-  <si>
-    <t>20.00 - 23.00</t>
-  </si>
-  <si>
-    <t>23.00 - 5.00</t>
-  </si>
-  <si>
-    <t>Physical + English</t>
-  </si>
-  <si>
     <t>Go to work</t>
   </si>
   <si>
@@ -308,45 +291,12 @@
     <t>Go home</t>
   </si>
   <si>
-    <t>For family</t>
-  </si>
-  <si>
-    <t>Improve myselt</t>
-  </si>
-  <si>
-    <t>Sleeping</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>11.00 -13.00</t>
-  </si>
-  <si>
-    <t>13.00 - 17.00</t>
-  </si>
-  <si>
-    <t>17.00 - 19.00</t>
-  </si>
-  <si>
-    <t>9.00 - 11.00</t>
-  </si>
-  <si>
-    <t>6.30 - 9.00</t>
-  </si>
-  <si>
     <t>Go to church</t>
   </si>
   <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t>Imporve</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -564,6 +514,54 @@
   </si>
   <si>
     <t>MaiKhoi cuoi</t>
+  </si>
+  <si>
+    <t>Tiết kiệm</t>
+  </si>
+  <si>
+    <t>Cố gắng liên tục</t>
+  </si>
+  <si>
+    <t>3.00 - 3.30</t>
+  </si>
+  <si>
+    <t>3.30 -  4.30</t>
+  </si>
+  <si>
+    <t>4.30 - 5.30</t>
+  </si>
+  <si>
+    <t>5.30 - 6.30</t>
+  </si>
+  <si>
+    <t>8.00 -17.00</t>
+  </si>
+  <si>
+    <t>17.00 -18.30</t>
+  </si>
+  <si>
+    <t>18.30 -19.30</t>
+  </si>
+  <si>
+    <t>19.30 -20.30</t>
+  </si>
+  <si>
+    <t>20.30 -22.00</t>
+  </si>
+  <si>
+    <t>22.00 - 3.00</t>
+  </si>
+  <si>
+    <t>Physical education</t>
+  </si>
+  <si>
+    <t>Take care Sunny</t>
+  </si>
+  <si>
+    <t>Bring Sunny to school</t>
+  </si>
+  <si>
+    <t>Bring Sunny back home</t>
   </si>
 </sst>
 </file>
@@ -613,7 +611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -789,10 +793,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,6 +834,14 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,13 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1484,11 +1485,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="443410320"/>
-        <c:axId val="443414632"/>
+        <c:axId val="241199152"/>
+        <c:axId val="241199544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="443410320"/>
+        <c:axId val="241199152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1502,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443414632"/>
+        <c:crossAx val="241199544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1509,7 +1510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443414632"/>
+        <c:axId val="241199544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443410320"/>
+        <c:crossAx val="241199152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,12 +1634,12 @@
         <c:gapWidth val="100"/>
         <c:gapDepth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="443415024"/>
-        <c:axId val="443409928"/>
+        <c:axId val="242207616"/>
+        <c:axId val="242208400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="443415024"/>
+        <c:axId val="242207616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1651,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443409928"/>
+        <c:crossAx val="242208400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1658,7 +1659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="443409928"/>
+        <c:axId val="242208400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1675,7 +1676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443415024"/>
+        <c:crossAx val="242207616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2068,451 +2069,451 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42">
+      <c r="B4" s="44">
         <v>5</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>135</v>
+      <c r="C4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>137</v>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
+      <c r="B6" s="44">
         <v>6.3</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>141</v>
+      <c r="B7" s="44"/>
+      <c r="C7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
+      <c r="B8" s="44">
         <v>8</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>142</v>
+      <c r="B9" s="44"/>
+      <c r="C9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
+      <c r="B10" s="44">
         <v>10</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="40" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44">
+        <v>12</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="44">
+        <v>13</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="44">
+        <v>15</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="44"/>
+      <c r="C17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="44">
+        <v>17</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="44">
+        <v>19</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44">
+        <v>21</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="44"/>
+      <c r="C23" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44">
+        <v>23</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="D25" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42">
-        <v>12</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42">
-        <v>13</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-    </row>
-    <row r="15" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42">
-        <v>15</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="40" t="s">
+      <c r="E25" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="F25" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42">
-        <v>17</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42">
-        <v>19</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="40" t="s">
+      <c r="G25" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="H25" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="I25" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42">
-        <v>21</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42">
-        <v>23</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-    </row>
-    <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3201,306 +3202,306 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="19">
+        <v>102</v>
+      </c>
+      <c r="B8" s="17">
         <f>IF(ISNUMBER($B$7),B7-B4,"")</f>
         <v>0</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f t="shared" ref="C8:F8" si="2">IF(ISNUMBER(C7),C7-C4,"")</f>
         <v>-10</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <f t="shared" si="2"/>
         <v>-38.5</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <f t="shared" si="2"/>
         <v>-57</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <f t="shared" ref="G8" si="3">IF(ISNUMBER(G7),G7-G4,"")</f>
         <v>-75.5</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <f t="shared" ref="H8" si="4">IF(ISNUMBER(H7),H7-H4,"")</f>
         <v>-94</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <f t="shared" ref="I8" si="5">IF(ISNUMBER(I7),I7-I4,"")</f>
         <v>-112.5</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <f t="shared" ref="J8" si="6">IF(ISNUMBER(J7),J7-J4,"")</f>
         <v>-131</v>
       </c>
-      <c r="K8" s="19" t="str">
+      <c r="K8" s="17" t="str">
         <f t="shared" ref="K8" si="7">IF(ISNUMBER(K7),K7-K4,"")</f>
         <v/>
       </c>
-      <c r="L8" s="19" t="str">
+      <c r="L8" s="17" t="str">
         <f t="shared" ref="L8" si="8">IF(ISNUMBER(L7),L7-L4,"")</f>
         <v/>
       </c>
-      <c r="M8" s="19" t="str">
+      <c r="M8" s="17" t="str">
         <f t="shared" ref="M8" si="9">IF(ISNUMBER(M7),M7-M4,"")</f>
         <v/>
       </c>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="17" t="str">
         <f t="shared" ref="N8" si="10">IF(ISNUMBER(N7),N7-N4,"")</f>
         <v/>
       </c>
-      <c r="O8" s="19" t="str">
+      <c r="O8" s="17" t="str">
         <f t="shared" ref="O8" si="11">IF(ISNUMBER(O7),O7-O4,"")</f>
         <v/>
       </c>
-      <c r="P8" s="19" t="str">
+      <c r="P8" s="17" t="str">
         <f t="shared" ref="P8" si="12">IF(ISNUMBER(P7),P7-P4,"")</f>
         <v/>
       </c>
-      <c r="Q8" s="19" t="str">
+      <c r="Q8" s="17" t="str">
         <f t="shared" ref="Q8" si="13">IF(ISNUMBER(Q7),Q7-Q4,"")</f>
         <v/>
       </c>
-      <c r="R8" s="19" t="str">
+      <c r="R8" s="17" t="str">
         <f t="shared" ref="R8" si="14">IF(ISNUMBER(R7),R7-R4,"")</f>
         <v/>
       </c>
-      <c r="S8" s="19" t="str">
+      <c r="S8" s="17" t="str">
         <f t="shared" ref="S8" si="15">IF(ISNUMBER(S7),S7-S4,"")</f>
         <v/>
       </c>
-      <c r="T8" s="19" t="str">
+      <c r="T8" s="17" t="str">
         <f t="shared" ref="T8" si="16">IF(ISNUMBER(T7),T7-T4,"")</f>
         <v/>
       </c>
-      <c r="U8" s="19" t="str">
+      <c r="U8" s="17" t="str">
         <f t="shared" ref="U8" si="17">IF(ISNUMBER(U7),U7-U4,"")</f>
         <v/>
       </c>
-      <c r="V8" s="19" t="str">
+      <c r="V8" s="17" t="str">
         <f t="shared" ref="V8" si="18">IF(ISNUMBER(V7),V7-V4,"")</f>
         <v/>
       </c>
-      <c r="W8" s="19" t="str">
+      <c r="W8" s="17" t="str">
         <f t="shared" ref="W8" si="19">IF(ISNUMBER(W7),W7-W4,"")</f>
         <v/>
       </c>
-      <c r="X8" s="19" t="str">
+      <c r="X8" s="17" t="str">
         <f t="shared" ref="X8" si="20">IF(ISNUMBER(X7),X7-X4,"")</f>
         <v/>
       </c>
-      <c r="Y8" s="19" t="str">
+      <c r="Y8" s="17" t="str">
         <f t="shared" ref="Y8" si="21">IF(ISNUMBER(Y7),Y7-Y4,"")</f>
         <v/>
       </c>
-      <c r="Z8" s="19" t="str">
+      <c r="Z8" s="17" t="str">
         <f t="shared" ref="Z8" si="22">IF(ISNUMBER(Z7),Z7-Z4,"")</f>
         <v/>
       </c>
-      <c r="AA8" s="19" t="str">
+      <c r="AA8" s="17" t="str">
         <f t="shared" ref="AA8" si="23">IF(ISNUMBER(AA7),AA7-AA4,"")</f>
         <v/>
       </c>
-      <c r="AB8" s="19" t="str">
+      <c r="AB8" s="17" t="str">
         <f t="shared" ref="AB8" si="24">IF(ISNUMBER(AB7),AB7-AB4,"")</f>
         <v/>
       </c>
-      <c r="AC8" s="19" t="str">
+      <c r="AC8" s="17" t="str">
         <f t="shared" ref="AC8" si="25">IF(ISNUMBER(AC7),AC7-AC4,"")</f>
         <v/>
       </c>
-      <c r="AD8" s="19" t="str">
+      <c r="AD8" s="17" t="str">
         <f t="shared" ref="AD8" si="26">IF(ISNUMBER(AD7),AD7-AD4,"")</f>
         <v/>
       </c>
-      <c r="AE8" s="19" t="str">
+      <c r="AE8" s="17" t="str">
         <f t="shared" ref="AE8" si="27">IF(ISNUMBER(AE7),AE7-AE4,"")</f>
         <v/>
       </c>
-      <c r="AF8" s="19" t="str">
+      <c r="AF8" s="17" t="str">
         <f t="shared" ref="AF8" si="28">IF(ISNUMBER(AF7),AF7-AF4,"")</f>
         <v/>
       </c>
-      <c r="AG8" s="19" t="str">
+      <c r="AG8" s="17" t="str">
         <f t="shared" ref="AG8" si="29">IF(ISNUMBER(AG7),AG7-AG4,"")</f>
         <v/>
       </c>
-      <c r="AH8" s="19" t="str">
+      <c r="AH8" s="17" t="str">
         <f t="shared" ref="AH8" si="30">IF(ISNUMBER(AH7),AH7-AH4,"")</f>
         <v/>
       </c>
-      <c r="AI8" s="19" t="str">
+      <c r="AI8" s="17" t="str">
         <f t="shared" ref="AI8" si="31">IF(ISNUMBER(AI7),AI7-AI4,"")</f>
         <v/>
       </c>
-      <c r="AJ8" s="19" t="str">
+      <c r="AJ8" s="17" t="str">
         <f t="shared" ref="AJ8" si="32">IF(ISNUMBER(AJ7),AJ7-AJ4,"")</f>
         <v/>
       </c>
-      <c r="AK8" s="19" t="str">
+      <c r="AK8" s="17" t="str">
         <f t="shared" ref="AK8" si="33">IF(ISNUMBER(AK7),AK7-AK4,"")</f>
         <v/>
       </c>
-      <c r="AL8" s="19" t="str">
+      <c r="AL8" s="17" t="str">
         <f t="shared" ref="AL8" si="34">IF(ISNUMBER(AL7),AL7-AL4,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="20">
+        <v>101</v>
+      </c>
+      <c r="B9" s="18">
         <f>IF(ISNUMBER(B7),B7-B6,"")</f>
         <v>0</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <f t="shared" ref="C9:AL9" si="35">IF(ISNUMBER(C7),C7-C6,"")</f>
         <v>-63.888888888888914</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <f t="shared" si="35"/>
         <v>-127.77777777777783</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <f t="shared" si="35"/>
         <v>-191.66666666666674</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <f t="shared" si="35"/>
         <v>-255.55555555555566</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <f t="shared" si="35"/>
         <v>-319.44444444444457</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <f t="shared" si="35"/>
         <v>-383.33333333333348</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <f t="shared" si="35"/>
         <v>-447.2222222222224</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <f t="shared" si="35"/>
         <v>-511.11111111111131</v>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L9" s="20" t="str">
+      <c r="L9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M9" s="20" t="str">
+      <c r="M9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N9" s="20" t="str">
+      <c r="N9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="O9" s="20" t="str">
+      <c r="O9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="P9" s="20" t="str">
+      <c r="P9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="Q9" s="20" t="str">
+      <c r="Q9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="R9" s="20" t="str">
+      <c r="R9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="S9" s="20" t="str">
+      <c r="S9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="T9" s="20" t="str">
+      <c r="T9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U9" s="20" t="str">
+      <c r="U9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="V9" s="20" t="str">
+      <c r="V9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="W9" s="20" t="str">
+      <c r="W9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="X9" s="20" t="str">
+      <c r="X9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="Y9" s="20" t="str">
+      <c r="Y9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="Z9" s="20" t="str">
+      <c r="Z9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AA9" s="20" t="str">
+      <c r="AA9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AB9" s="20" t="str">
+      <c r="AB9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AC9" s="20" t="str">
+      <c r="AC9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AD9" s="20" t="str">
+      <c r="AD9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AE9" s="20" t="str">
+      <c r="AE9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AF9" s="20" t="str">
+      <c r="AF9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AG9" s="20" t="str">
+      <c r="AG9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AH9" s="20" t="str">
+      <c r="AH9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AI9" s="20" t="str">
+      <c r="AI9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AJ9" s="20" t="str">
+      <c r="AJ9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AK9" s="20" t="str">
+      <c r="AK9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AL9" s="20" t="str">
+      <c r="AL9" s="18" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -4197,10 +4198,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,26 +4211,24 @@
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4249,193 +4248,160 @@
         <v>80</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C8" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="13" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="I6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="15"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
@@ -4456,176 +4422,176 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="15" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -4638,10 +4604,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B27"/>
+  <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4649,124 +4615,125 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4774,7 +4741,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4782,7 +4749,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4790,7 +4757,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4798,7 +4765,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4806,7 +4773,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4814,7 +4781,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4822,7 +4789,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4830,7 +4797,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4805,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4846,7 +4813,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4854,7 +4821,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4866,8 +4849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,9 +4862,10 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10" style="17" customWidth="1"/>
+    <col min="5" max="6" width="10" style="15" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4886,57 +4873,57 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>171</v>
+        <v>131</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="29">
         <v>43831</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="35">
         <v>43862</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="27">
         <v>43891</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="20">
         <v>43922</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="20">
         <v>43952</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="20">
         <v>43983</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="20">
         <v>44013</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="20">
         <v>44044</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="20">
         <v>44075</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="20">
         <v>44105</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="20">
         <v>44136</v>
       </c>
-      <c r="S2" s="22">
+      <c r="S2" s="20">
         <v>44166</v>
       </c>
     </row>
@@ -4945,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C3">
         <f>SUM(C9:C137)</f>
@@ -4959,52 +4946,52 @@
         <f>C3-D3</f>
         <v>245</v>
       </c>
-      <c r="H3" s="33">
-        <f>SUMIF($E$9:$E$137,H2,$C$9:$C$137)-SUMIF($E$9:$E$137,H2,$D$9:$D$137)</f>
+      <c r="H3" s="31">
+        <f t="shared" ref="H3:S3" si="0">SUMIF($E$9:$E$137,H2,$C$9:$C$137)-SUMIF($E$9:$E$137,H2,$D$9:$D$137)</f>
         <v>6.7000000000000028</v>
       </c>
-      <c r="I3" s="33">
-        <f>SUMIF($E$9:$E$137,I2,$C$9:$C$137)-SUMIF($E$9:$E$137,I2,$D$9:$D$137)</f>
+      <c r="I3" s="31">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J3" s="33">
-        <f>SUMIF($E$9:$E$137,J2,$C$9:$C$137)-SUMIF($E$9:$E$137,J2,$D$9:$D$137)</f>
+      <c r="J3" s="31">
+        <f t="shared" si="0"/>
         <v>43.8</v>
       </c>
-      <c r="K3" s="33">
-        <f>SUMIF($E$9:$E$137,K2,$C$9:$C$137)-SUMIF($E$9:$E$137,K2,$D$9:$D$137)</f>
+      <c r="K3" s="31">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L3" s="33">
-        <f>SUMIF($E$9:$E$137,L2,$C$9:$C$137)-SUMIF($E$9:$E$137,L2,$D$9:$D$137)</f>
+      <c r="L3" s="31">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M3" s="33">
-        <f>SUMIF($E$9:$E$137,M2,$C$9:$C$137)-SUMIF($E$9:$E$137,M2,$D$9:$D$137)</f>
+      <c r="M3" s="31">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N3" s="33">
-        <f>SUMIF($E$9:$E$137,N2,$C$9:$C$137)-SUMIF($E$9:$E$137,N2,$D$9:$D$137)</f>
+      <c r="N3" s="31">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="O3" s="33">
-        <f>SUMIF($E$9:$E$137,O2,$C$9:$C$137)-SUMIF($E$9:$E$137,O2,$D$9:$D$137)</f>
+      <c r="O3" s="31">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P3" s="33">
-        <f>SUMIF($E$9:$E$137,P2,$C$9:$C$137)-SUMIF($E$9:$E$137,P2,$D$9:$D$137)</f>
+      <c r="P3" s="31">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Q3" s="33">
-        <f>SUMIF($E$9:$E$137,Q2,$C$9:$C$137)-SUMIF($E$9:$E$137,Q2,$D$9:$D$137)</f>
+      <c r="Q3" s="31">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R3" s="33">
-        <f>SUMIF($E$9:$E$137,R2,$C$9:$C$137)-SUMIF($E$9:$E$137,R2,$D$9:$D$137)</f>
+      <c r="R3" s="31">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S3" s="33">
-        <f>SUMIF($E$9:$E$137,S2,$C$9:$C$137)-SUMIF($E$9:$E$137,S2,$D$9:$D$137)</f>
+      <c r="S3" s="31">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
@@ -5013,42 +5000,42 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="33">
+        <v>157</v>
+      </c>
+      <c r="H4" s="31">
         <v>8</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="21">
         <v>8</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="21">
         <v>45</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <v>18</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="21">
         <v>18</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="21">
         <v>23</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="21">
         <v>23</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="21">
         <v>23</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="21">
         <v>23</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="21">
         <v>23</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="21">
         <v>23</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="21">
         <v>23</v>
       </c>
     </row>
@@ -5057,54 +5044,54 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="33">
+        <v>154</v>
+      </c>
+      <c r="H5" s="31">
         <f>SUMIFS($C$9:$C$137,$E$9:$E$137,H2,$F$9:$F$137,$B5)-SUMIFS($D$9:$D$137,$E$9:$E$137,H2,$F$9:$F$137,$B5)</f>
         <v>6.7000000000000028</v>
       </c>
-      <c r="I5" s="33">
-        <f t="shared" ref="I5:S5" si="0">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B5)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B5)</f>
+      <c r="I5" s="31">
+        <f t="shared" ref="I5:S5" si="1">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B5)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B5)</f>
         <v>3</v>
       </c>
-      <c r="J5" s="33">
-        <f t="shared" si="0"/>
+      <c r="J5" s="31">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K5" s="33">
-        <f t="shared" si="0"/>
+      <c r="K5" s="31">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L5" s="33">
-        <f t="shared" si="0"/>
+      <c r="L5" s="31">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M5" s="33">
-        <f t="shared" si="0"/>
+      <c r="M5" s="31">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N5" s="33">
-        <f t="shared" si="0"/>
+      <c r="N5" s="31">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O5" s="33">
-        <f t="shared" si="0"/>
+      <c r="O5" s="31">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P5" s="33">
-        <f t="shared" si="0"/>
+      <c r="P5" s="31">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q5" s="33">
-        <f t="shared" si="0"/>
+      <c r="Q5" s="31">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R5" s="33">
-        <f t="shared" si="0"/>
+      <c r="R5" s="31">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="S5" s="33">
-        <f t="shared" si="0"/>
+      <c r="S5" s="31">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -5113,54 +5100,54 @@
         <v>0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="33">
+        <v>156</v>
+      </c>
+      <c r="H6" s="31">
         <f>SUMIFS($C$9:$C$137,$E$9:$E$137,H2,$F$9:$F$137,$B6)-SUMIFS($D$9:$D$137,$E$9:$E$137,H2,$F$9:$F$137,$B6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="33">
-        <f t="shared" ref="I6:S6" si="1">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B6)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B6)</f>
+      <c r="I6" s="31">
+        <f t="shared" ref="I6:S6" si="2">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B6)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B6)</f>
         <v>5</v>
       </c>
-      <c r="J6" s="33">
-        <f t="shared" si="1"/>
+      <c r="J6" s="31">
+        <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="K6" s="33">
-        <f t="shared" si="1"/>
+      <c r="K6" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="33">
-        <f t="shared" si="1"/>
+      <c r="L6" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M6" s="33">
-        <f t="shared" si="1"/>
+      <c r="M6" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N6" s="33">
-        <f t="shared" si="1"/>
+      <c r="N6" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O6" s="33">
-        <f t="shared" si="1"/>
+      <c r="O6" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P6" s="33">
-        <f t="shared" si="1"/>
+      <c r="P6" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q6" s="33">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R6" s="33">
-        <f t="shared" si="1"/>
+      <c r="R6" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="S6" s="33">
-        <f t="shared" si="1"/>
+      <c r="S6" s="31">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -5169,54 +5156,54 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="33">
+        <v>155</v>
+      </c>
+      <c r="H7" s="31">
         <f>SUMIFS($C$9:$C$137,$E$9:$E$137,H2,$F$9:$F$137,$B7)-SUMIFS($D$9:$D$137,$E$9:$E$137,H2,$F$9:$F$137,$B7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="33">
-        <f t="shared" ref="I7:S7" si="2">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B7)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="33">
-        <f t="shared" si="2"/>
+      <c r="I7" s="31">
+        <f t="shared" ref="I7:S7" si="3">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B7)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="K7" s="33">
-        <f t="shared" si="2"/>
+      <c r="K7" s="31">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="L7" s="33">
-        <f t="shared" si="2"/>
+      <c r="L7" s="31">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M7" s="33">
-        <f t="shared" si="2"/>
+      <c r="M7" s="31">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N7" s="33">
-        <f t="shared" si="2"/>
+      <c r="N7" s="31">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="O7" s="33">
-        <f t="shared" si="2"/>
+      <c r="O7" s="31">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P7" s="33">
-        <f t="shared" si="2"/>
+      <c r="P7" s="31">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="Q7" s="33">
-        <f t="shared" si="2"/>
+      <c r="Q7" s="31">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R7" s="33">
-        <f t="shared" si="2"/>
+      <c r="R7" s="31">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="S7" s="33">
-        <f t="shared" si="2"/>
+      <c r="S7" s="31">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -5227,52 +5214,52 @@
       <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="31">
         <f>H4-H3</f>
         <v>1.2999999999999972</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <f>I4-I3</f>
         <v>0</v>
       </c>
-      <c r="J8" s="33">
-        <f t="shared" ref="J8:S8" si="3">J4-J3</f>
+      <c r="J8" s="31">
+        <f t="shared" ref="J8:S8" si="4">J4-J3</f>
         <v>1.2000000000000028</v>
       </c>
-      <c r="K8" s="33">
-        <f t="shared" si="3"/>
+      <c r="K8" s="31">
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="L8" s="33">
-        <f t="shared" si="3"/>
+      <c r="L8" s="31">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="33">
-        <f t="shared" si="3"/>
+      <c r="M8" s="31">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="N8" s="33">
-        <f t="shared" si="3"/>
+      <c r="N8" s="31">
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
-      <c r="O8" s="33">
-        <f t="shared" si="3"/>
+      <c r="O8" s="31">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="P8" s="33">
-        <f t="shared" si="3"/>
+      <c r="P8" s="31">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="Q8" s="33">
-        <f t="shared" si="3"/>
+      <c r="Q8" s="31">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="R8" s="33">
-        <f t="shared" si="3"/>
+      <c r="R8" s="31">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="S8" s="33">
-        <f t="shared" si="3"/>
+      <c r="S8" s="31">
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
     </row>
@@ -5281,1434 +5268,1434 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <f>SUM(H9:S9)</f>
         <v>5</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="38">
         <v>43831</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="28" t="str">
+      <c r="F9" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="26" t="str">
         <f>IF(C9&gt;D9,"In progress", "Done")</f>
         <v>Done</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <v>5</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="B10" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="32">
         <v>5</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <f>SUM(H10:S10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="33">
         <v>43862</v>
       </c>
-      <c r="F10" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="34" t="str">
+      <c r="F10" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="32" t="str">
         <f>IF(C10&gt;D10,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H10" s="34">
-        <v>0</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="28">
-        <f t="shared" ref="D11:D22" si="4">SUM(H11:S11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="51">
+      <c r="D11" s="26">
+        <f t="shared" ref="D11:D22" si="5">SUM(H11:S11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="38">
         <v>43891</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="28" t="str">
-        <f t="shared" ref="G11:G20" si="5">IF(C11&gt;D11,"In progress", "Done")</f>
+      <c r="F11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="26" t="str">
+        <f t="shared" ref="G11:G20" si="6">IF(C11&gt;D11,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H11" s="28">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="51">
+      <c r="D12" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="38">
         <v>43922</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="28" t="str">
-        <f t="shared" si="5"/>
+      <c r="F12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H12" s="28">
-        <v>0</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="51">
+      <c r="D13" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="38">
         <v>43952</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="28" t="str">
-        <f t="shared" si="5"/>
+      <c r="F13" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H13" s="28">
-        <v>0</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="51">
+      <c r="D14" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="38">
         <v>43983</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="28" t="str">
-        <f t="shared" si="5"/>
+      <c r="F14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H14" s="28">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="51">
+      <c r="D15" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="38">
         <v>44013</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="28" t="str">
-        <f t="shared" si="5"/>
+      <c r="F15" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H15" s="28">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="51">
+      <c r="D16" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="38">
         <v>44044</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="28" t="str">
-        <f t="shared" si="5"/>
+      <c r="F16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H16" s="28">
-        <v>0</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="51">
+      <c r="D17" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="38">
         <v>44075</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="28" t="str">
-        <f t="shared" si="5"/>
+      <c r="F17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="51">
+      <c r="D18" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="38">
         <v>44105</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="28" t="str">
-        <f t="shared" si="5"/>
+      <c r="F18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H18" s="28">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="51">
+      <c r="D19" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="38">
         <v>44136</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="28" t="str">
-        <f t="shared" si="5"/>
+      <c r="F19" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H19" s="28">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="51">
+      <c r="D20" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="38">
         <v>44166</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="28" t="str">
-        <f t="shared" si="5"/>
+      <c r="F20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="26" t="str">
+        <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H20" s="28">
-        <v>0</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="28">
-        <f t="shared" si="4"/>
+      <c r="D21" s="26">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="38">
         <v>43831</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G21" s="28" t="str">
+      <c r="F21" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="26" t="str">
         <f>IF(C21&gt;D21,"In progress", "Done")</f>
         <v>Done</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="26">
         <v>3</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="32">
         <v>14</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="34">
+      <c r="B22" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="32">
         <v>1.3</v>
       </c>
-      <c r="D22" s="34">
-        <f t="shared" si="4"/>
+      <c r="D22" s="32">
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="33">
         <v>43862</v>
       </c>
-      <c r="F22" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="34" t="str">
+      <c r="F22" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="32" t="str">
         <f>IF(C22&gt;D22,"In progress", "Done")</f>
         <v>Done</v>
       </c>
-      <c r="H22" s="34">
-        <v>0</v>
-      </c>
-      <c r="I22" s="53">
+      <c r="H22" s="32">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40">
         <v>1.3</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="26">
         <f>SUM(H23:S23)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="38">
         <v>43891</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" s="28" t="str">
+      <c r="F23" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="26" t="str">
         <f>IF(C23&gt;D23,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H23" s="28">
-        <v>0</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="28">
-        <f t="shared" ref="D24:D44" si="6">SUM(H24:S24)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="51">
+      <c r="D24" s="26">
+        <f t="shared" ref="D24:D44" si="7">SUM(H24:S24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="38">
         <v>43922</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="28" t="str">
-        <f t="shared" ref="G24:G44" si="7">IF(C24&gt;D24,"In progress", "Done")</f>
+      <c r="F24" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="26" t="str">
+        <f t="shared" ref="G24:G44" si="8">IF(C24&gt;D24,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H24" s="28">
-        <v>0</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="51">
+      <c r="D25" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="38">
         <v>43952</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F25" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H25" s="28">
-        <v>0</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="51">
+      <c r="D26" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="38">
         <v>43983</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F26" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H26" s="28">
-        <v>0</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="51">
+      <c r="D27" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="38">
         <v>44013</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F27" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H27" s="28">
-        <v>0</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="51">
+      <c r="D28" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="38">
         <v>44044</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F28" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H28" s="28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
+      <c r="H28" s="26">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="51">
+      <c r="D29" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="38">
         <v>44075</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F29" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H29" s="28">
-        <v>0</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="51">
+      <c r="D30" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="38">
         <v>44105</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F30" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H30" s="28">
-        <v>0</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
+      <c r="H30" s="26">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="51">
+      <c r="D31" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="38">
         <v>44136</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F31" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H31" s="28">
-        <v>0</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="51">
+      <c r="D32" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="38">
         <v>44166</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F32" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H32" s="28">
-        <v>0</v>
-      </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
+      <c r="H32" s="26">
+        <v>0</v>
+      </c>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
-      <c r="D33" s="28">
-        <f t="shared" si="6"/>
+      <c r="D33" s="26">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="38">
         <v>43831</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="28" t="str">
+      <c r="F33" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="26" t="str">
+        <f t="shared" si="8"/>
+        <v>Done</v>
+      </c>
+      <c r="H33" s="26">
+        <v>5</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>26</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="32">
+        <v>2</v>
+      </c>
+      <c r="D34" s="32">
         <f t="shared" si="7"/>
-        <v>Done</v>
-      </c>
-      <c r="H33" s="28">
-        <v>5</v>
-      </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
-        <v>26</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="34">
-        <v>2</v>
-      </c>
-      <c r="D34" s="34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="35">
+        <v>0</v>
+      </c>
+      <c r="E34" s="33">
         <v>43862</v>
       </c>
-      <c r="F34" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="34" t="str">
-        <f t="shared" si="7"/>
+      <c r="F34" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="32" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H34" s="34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="53">
-        <v>0</v>
-      </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
+      <c r="H34" s="32">
+        <v>0</v>
+      </c>
+      <c r="I34" s="40">
+        <v>0</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="51">
+      <c r="D35" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="38">
         <v>43891</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F35" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H35" s="28">
-        <v>0</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
+      <c r="H35" s="26">
+        <v>0</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="51">
+      <c r="D36" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="38">
         <v>43922</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F36" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H36" s="28">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
+      <c r="H36" s="26">
+        <v>0</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
-      <c r="D37" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="51">
+      <c r="D37" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="38">
         <v>43952</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F37" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H37" s="28">
-        <v>0</v>
-      </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
+      <c r="H37" s="26">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="51">
+      <c r="D38" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="38">
         <v>43983</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G38" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F38" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H38" s="28">
-        <v>0</v>
-      </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
+      <c r="H38" s="26">
+        <v>0</v>
+      </c>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
-      <c r="D39" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="51">
+      <c r="D39" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="38">
         <v>44013</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F39" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H39" s="28">
-        <v>0</v>
-      </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
+      <c r="H39" s="26">
+        <v>0</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="51">
+      <c r="D40" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="38">
         <v>44044</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G40" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F40" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H40" s="28">
-        <v>0</v>
-      </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
+      <c r="H40" s="26">
+        <v>0</v>
+      </c>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
-      <c r="D41" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="51">
+      <c r="D41" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="38">
         <v>44075</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F41" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H41" s="28">
-        <v>0</v>
-      </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
+      <c r="H41" s="26">
+        <v>0</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="51">
+      <c r="D42" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="38">
         <v>44105</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F42" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H42" s="28">
-        <v>0</v>
-      </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
+      <c r="H42" s="26">
+        <v>0</v>
+      </c>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="D43" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="51">
+      <c r="D43" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="38">
         <v>44136</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F43" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H43" s="28">
-        <v>0</v>
-      </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
+      <c r="H43" s="26">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
-      <c r="D44" s="28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="51">
+      <c r="D44" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="38">
         <v>44166</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" s="28" t="str">
-        <f t="shared" si="7"/>
+      <c r="F44" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="26" t="str">
+        <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H44" s="28">
-        <v>0</v>
-      </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
+      <c r="H44" s="26">
+        <v>0</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="28">
+      <c r="B45" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="26">
         <v>30</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="26">
         <f>SUM(H45:S45)</f>
         <v>29</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="38">
         <v>43831</v>
       </c>
-      <c r="F45" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="28" t="str">
+      <c r="F45" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="26" t="str">
         <f>IF(C45&gt;D45,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="26">
         <v>29</v>
       </c>
     </row>
@@ -6716,27 +6703,27 @@
       <c r="A46">
         <v>38</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="30">
+      <c r="B46" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="28">
         <v>19</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="28">
         <f>SUM(H46:S46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="37">
         <v>43891</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" s="30" t="str">
-        <f t="shared" ref="G46:G60" si="8">IF(C46&gt;D46,"In progress", "Done")</f>
+      <c r="F46" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="28" t="str">
+        <f t="shared" ref="G46:G60" si="9">IF(C46&gt;D46,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="28">
         <v>0</v>
       </c>
     </row>
@@ -6744,27 +6731,27 @@
       <c r="A47">
         <v>39</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="32">
+      <c r="B47" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="30">
         <v>2</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="30">
         <f>SUM(I52:S52)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="34">
         <v>43831</v>
       </c>
-      <c r="F47" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="32" t="str">
+      <c r="F47" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="30" t="str">
         <f>IF(C47&gt;D47,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6772,27 +6759,27 @@
       <c r="A48">
         <v>40</v>
       </c>
-      <c r="B48" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="32">
+      <c r="B48" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="30">
         <v>2</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="30">
         <f>SUM(I53:S53)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="34">
         <v>43831</v>
       </c>
-      <c r="F48" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="32" t="str">
+      <c r="F48" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="30" t="str">
         <f>IF(C48&gt;D48,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H48" s="32">
+      <c r="H48" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6800,27 +6787,27 @@
       <c r="A49">
         <v>41</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="B49" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="30">
         <v>1</v>
       </c>
-      <c r="D49" s="32">
-        <f>SUM(H49:S49)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="36">
+      <c r="D49" s="30">
+        <f t="shared" ref="D49:D69" si="10">SUM(H49:S49)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="34">
         <v>43831</v>
       </c>
-      <c r="F49" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="32" t="str">
+      <c r="F49" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="30" t="str">
         <f>IF(C49&gt;D49,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H49" s="32">
+      <c r="H49" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6828,27 +6815,27 @@
       <c r="A50">
         <v>42</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="34">
+        <v>43831</v>
+      </c>
+      <c r="F50" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="32">
-        <f>SUM(H50:S50)</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="36">
-        <v>43831</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50" s="32" t="str">
+      <c r="G50" s="30" t="str">
         <f>IF(C50&gt;D50,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H50" s="32">
+      <c r="H50" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6856,27 +6843,27 @@
       <c r="A51">
         <v>43</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="32">
+      <c r="B51" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="30">
         <v>4</v>
       </c>
-      <c r="D51" s="32">
-        <f>SUM(H51:S51)</f>
+      <c r="D51" s="30">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="34">
         <v>43831</v>
       </c>
-      <c r="F51" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="32" t="str">
-        <f t="shared" si="8"/>
+      <c r="F51" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="30" t="str">
+        <f t="shared" si="9"/>
         <v>Done</v>
       </c>
-      <c r="H51" s="32">
+      <c r="H51" s="30">
         <v>4</v>
       </c>
     </row>
@@ -6884,27 +6871,27 @@
       <c r="A52">
         <v>44</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="32">
+      <c r="B52" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="30">
         <v>0.1</v>
       </c>
-      <c r="D52" s="32">
-        <f>SUM(H52:S52)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="36">
+      <c r="D52" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="34">
         <v>43831</v>
       </c>
-      <c r="F52" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G52" s="32" t="str">
+      <c r="F52" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="30" t="str">
         <f>IF(C52&gt;D52,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H52" s="32">
+      <c r="H52" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6912,27 +6899,27 @@
       <c r="A53">
         <v>45</v>
       </c>
-      <c r="B53" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="32">
+      <c r="B53" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="30">
         <v>0.1</v>
       </c>
-      <c r="D53" s="32">
-        <f>SUM(H53:S53)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="36">
+      <c r="D53" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="34">
         <v>43831</v>
       </c>
-      <c r="F53" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" s="32" t="str">
+      <c r="F53" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="30" t="str">
         <f>IF(C53&gt;D53,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6940,27 +6927,27 @@
       <c r="A54">
         <v>46</v>
       </c>
-      <c r="B54" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="32">
+      <c r="B54" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="30">
         <v>0.5</v>
       </c>
-      <c r="D54" s="32">
-        <f>SUM(H54:S54)</f>
+      <c r="D54" s="30">
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="34">
         <v>43831</v>
       </c>
-      <c r="F54" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" s="32" t="str">
-        <f t="shared" si="8"/>
+      <c r="F54" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="30" t="str">
+        <f t="shared" si="9"/>
         <v>Done</v>
       </c>
-      <c r="H54" s="32">
+      <c r="H54" s="30">
         <v>0.5</v>
       </c>
     </row>
@@ -6969,26 +6956,26 @@
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C55">
         <v>15</v>
       </c>
       <c r="D55">
-        <f>SUM(H55:S55)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="23">
         <v>44013</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>173</v>
+      <c r="F55" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6997,26 +6984,26 @@
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C56">
         <v>9</v>
       </c>
       <c r="D56">
-        <f>SUM(H56:S56)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="23">
         <v>43922</v>
       </c>
-      <c r="F56" s="25" t="s">
-        <v>173</v>
+      <c r="F56" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H56" s="28">
+      <c r="H56" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7024,67 +7011,67 @@
       <c r="A57">
         <v>49</v>
       </c>
-      <c r="B57" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="26">
+      <c r="B57" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="24">
         <v>1.5</v>
       </c>
-      <c r="D57" s="26">
-        <f>SUM(H57:S57)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" s="26" t="str">
-        <f t="shared" si="8"/>
+      <c r="D57" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="24" t="str">
+        <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H57" s="28">
-        <v>0</v>
-      </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="28"/>
+      <c r="H57" s="26">
+        <v>0</v>
+      </c>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="26"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="30">
+      <c r="B58" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="28">
         <v>8</v>
       </c>
-      <c r="D58" s="30">
-        <f>SUM(H58:S58)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="39">
+      <c r="D58" s="28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="37">
         <v>43891</v>
       </c>
-      <c r="F58" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="G58" s="30" t="str">
-        <f t="shared" si="8"/>
+      <c r="F58" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="28">
         <v>0</v>
       </c>
     </row>
@@ -7093,26 +7080,26 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C59">
         <v>12</v>
       </c>
       <c r="D59">
-        <f>SUM(H59:S59)</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="23">
         <v>44166</v>
       </c>
-      <c r="F59" s="25" t="s">
-        <v>172</v>
+      <c r="F59" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7120,27 +7107,27 @@
       <c r="A60">
         <v>52</v>
       </c>
-      <c r="B60" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="30">
+      <c r="B60" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="28">
         <v>3.8</v>
       </c>
-      <c r="D60" s="30">
-        <f>SUM(H60:S60)</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="39">
+      <c r="D60" s="28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="37">
         <v>43891</v>
       </c>
-      <c r="F60" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="G60" s="30" t="str">
-        <f t="shared" si="8"/>
+      <c r="F60" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="28">
         <v>0</v>
       </c>
     </row>
@@ -7149,26 +7136,26 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61">
-        <f>SUM(H61:S61)</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
         <v>43952</v>
       </c>
-      <c r="F61" s="25" t="s">
-        <v>172</v>
+      <c r="F61" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="G61" t="str">
-        <f>IF(C61&gt;D61,"In progress", "Done")</f>
+        <f t="shared" ref="G61:G69" si="11">IF(C61&gt;D61,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7177,26 +7164,26 @@
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62">
-        <f>SUM(H62:S62)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="23">
         <v>43983</v>
       </c>
-      <c r="F62" s="25" t="s">
-        <v>172</v>
+      <c r="F62" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="G62" t="str">
-        <f>IF(C62&gt;D62,"In progress", "Done")</f>
+        <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H62" s="28">
+      <c r="H62" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7205,26 +7192,26 @@
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63">
-        <f>SUM(H63:S63)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="23">
         <v>44013</v>
       </c>
-      <c r="F63" s="25" t="s">
-        <v>172</v>
+      <c r="F63" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="G63" t="str">
-        <f>IF(C63&gt;D63,"In progress", "Done")</f>
+        <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H63" s="28">
+      <c r="H63" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7233,26 +7220,26 @@
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64">
-        <f>SUM(H64:S64)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="23">
         <v>44044</v>
       </c>
-      <c r="F64" s="25" t="s">
-        <v>172</v>
+      <c r="F64" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="G64" t="str">
-        <f>IF(C64&gt;D64,"In progress", "Done")</f>
+        <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7261,26 +7248,26 @@
         <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65">
-        <f>SUM(H65:S65)</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="23">
         <v>44075</v>
       </c>
-      <c r="F65" s="25" t="s">
-        <v>172</v>
+      <c r="F65" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="G65" t="str">
-        <f>IF(C65&gt;D65,"In progress", "Done")</f>
+        <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H65" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7289,26 +7276,26 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66">
-        <f>SUM(H66:S66)</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="23">
         <v>44105</v>
       </c>
-      <c r="F66" s="25" t="s">
-        <v>172</v>
+      <c r="F66" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="G66" t="str">
-        <f>IF(C66&gt;D66,"In progress", "Done")</f>
+        <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H66" s="28">
+      <c r="H66" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7317,26 +7304,26 @@
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
       <c r="D67">
-        <f>SUM(H67:S67)</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="23">
         <v>44136</v>
       </c>
-      <c r="F67" s="25" t="s">
-        <v>172</v>
+      <c r="F67" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="G67" t="str">
-        <f>IF(C67&gt;D67,"In progress", "Done")</f>
+        <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H67" s="28">
+      <c r="H67" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7345,26 +7332,26 @@
         <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68">
-        <f>SUM(H68:S68)</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="23">
         <v>44166</v>
       </c>
-      <c r="F68" s="25" t="s">
-        <v>172</v>
+      <c r="F68" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="G68" t="str">
-        <f>IF(C68&gt;D68,"In progress", "Done")</f>
+        <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H68" s="28">
+      <c r="H68" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7372,306 +7359,307 @@
       <c r="A69">
         <v>61</v>
       </c>
-      <c r="B69" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69" s="34">
+      <c r="B69" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="32">
         <v>1</v>
       </c>
-      <c r="D69" s="34">
-        <f>SUM(H69:S69)</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="38">
+      <c r="D69" s="32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="36">
         <v>43862</v>
       </c>
-      <c r="F69" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="G69" s="34" t="str">
-        <f>IF(C69&gt;D69,"In progress", "Done")</f>
+      <c r="F69" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="32" t="str">
+        <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H69" s="34">
-        <v>0</v>
-      </c>
-      <c r="I69" s="34">
+      <c r="H69" s="32">
+        <v>0</v>
+      </c>
+      <c r="I69" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
     </row>
     <row r="114" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
     </row>
     <row r="120" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
     </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
     </row>
     <row r="122" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
     </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
     </row>
     <row r="124" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
     </row>
     <row r="126" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
     </row>
     <row r="127" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
     </row>
     <row r="128" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
     </row>
     <row r="131" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E132" s="25"/>
-      <c r="F132" s="25"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
     </row>
     <row r="133" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
     </row>
     <row r="134" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
     </row>
     <row r="135" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
     </row>
     <row r="136" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
     </row>
     <row r="137" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="25"/>
-      <c r="F137" s="25"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:S69"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7688,13 +7676,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>165</v>
+      <c r="A1" s="22" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/_wallpage/HoangPlan.xlsx
+++ b/_wallpage/HoangPlan.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Tools\00_Eclipse_SimRel_2018_09\eclipse-jee-2019-03\git\hackerRank\_wallpage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Tools\03_linhtinh\GitHub\hackerRank\_wallpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F501CC4C-6D81-424F-8E2F-9159773F7FE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="20370" yWindow="-4635" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Timetable (2)" sheetId="7" r:id="rId1"/>
-    <sheet name="Property" sheetId="1" r:id="rId2"/>
-    <sheet name="Plan" sheetId="2" r:id="rId3"/>
-    <sheet name="CheckList_Web_20190713" sheetId="3" r:id="rId4"/>
-    <sheet name="Timetable" sheetId="4" r:id="rId5"/>
-    <sheet name="RESTfull" sheetId="5" r:id="rId6"/>
-    <sheet name="Draft" sheetId="6" r:id="rId7"/>
-    <sheet name="Speding table" sheetId="8" r:id="rId8"/>
-    <sheet name="Links" sheetId="9" r:id="rId9"/>
+    <sheet name="TODO" sheetId="10" r:id="rId1"/>
+    <sheet name="Timetable (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="Property" sheetId="1" r:id="rId3"/>
+    <sheet name="Plan" sheetId="2" r:id="rId4"/>
+    <sheet name="CheckList_Web_20190713" sheetId="3" r:id="rId5"/>
+    <sheet name="Timetable" sheetId="4" r:id="rId6"/>
+    <sheet name="RESTfull" sheetId="5" r:id="rId7"/>
+    <sheet name="Draft" sheetId="6" r:id="rId8"/>
+    <sheet name="Speding table" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
+    <sheet name="Links" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Speding table'!$A$2:$S$69</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="7">'Speding table'!$H$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Speding table'!$A$2:$S$69</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="8">'Speding table'!$H$2:$S$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="195">
   <si>
     <t>Time</t>
   </si>
@@ -39,12 +53,6 @@
     <t>Hoang's plan</t>
   </si>
   <si>
-    <t>Income1</t>
-  </si>
-  <si>
-    <t>Asset1</t>
-  </si>
-  <si>
     <t>Income2</t>
   </si>
   <si>
@@ -562,12 +570,72 @@
   </si>
   <si>
     <t>Bring Sunny back home</t>
+  </si>
+  <si>
+    <t>25/01/2020</t>
+  </si>
+  <si>
+    <t>Số TT</t>
+  </si>
+  <si>
+    <t>Những việc cần làm</t>
+  </si>
+  <si>
+    <t>Việc công ty</t>
+  </si>
+  <si>
+    <t>Học Tiếng Anh</t>
+  </si>
+  <si>
+    <t>Học Tiếng Nhật</t>
+  </si>
+  <si>
+    <t>Học Tiếng Pháp</t>
+  </si>
+  <si>
+    <t>Học chứng khoán</t>
+  </si>
+  <si>
+    <t>Học IT</t>
+  </si>
+  <si>
+    <t>14/03/2022</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Learning English TOEIC 700</t>
+  </si>
+  <si>
+    <t>Learn English TOEIC 800</t>
+  </si>
+  <si>
+    <t>Learn English TOEIC 900</t>
+  </si>
+  <si>
+    <t>Due Day</t>
+  </si>
+  <si>
+    <t>Web (Java, C#)</t>
+  </si>
+  <si>
+    <t>Plan 2023</t>
+  </si>
+  <si>
+    <t>31/01/2024</t>
+  </si>
+  <si>
+    <t>Change Job 2000$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
@@ -761,18 +829,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -780,9 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,12 +875,10 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -832,9 +891,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -860,9 +916,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,6 +928,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -894,7 +951,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -917,7 +974,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>plan1</c:v>
+            <c:v>Loan</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1052,123 +1109,128 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>710</c:v>
+                  <c:v>693.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>720</c:v>
+                  <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>738.5</c:v>
+                  <c:v>680.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>757</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>775.5</c:v>
+                  <c:v>667.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>794</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>812.5</c:v>
+                  <c:v>654.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>831</c:v>
+                  <c:v>648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>849.5</c:v>
+                  <c:v>641.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>868</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>886.5</c:v>
+                  <c:v>628.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>905</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>923.5</c:v>
+                  <c:v>615.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>942</c:v>
+                  <c:v>609</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>968.5</c:v>
+                  <c:v>602.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>995</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1021.5</c:v>
+                  <c:v>589.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1048</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1074.5</c:v>
+                  <c:v>576.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1101</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1127.5</c:v>
+                  <c:v>563.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1154</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1180.5</c:v>
+                  <c:v>550.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1207</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1233.5</c:v>
+                  <c:v>537.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1260</c:v>
+                  <c:v>531</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1298.5</c:v>
+                  <c:v>524.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1337</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1375.5</c:v>
+                  <c:v>511.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1414</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1452.5</c:v>
+                  <c:v>498.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1491</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1529.5</c:v>
+                  <c:v>485.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1568</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1606.5</c:v>
+                  <c:v>472.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1645</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2517-4CEE-AA4E-17E3B7949B70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>plan2</c:v>
+            <c:v>Plan</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1414,6 +1476,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2517-4CEE-AA4E-17E3B7949B70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1427,6 +1494,11 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2517-4CEE-AA4E-17E3B7949B70}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1465,6 +1537,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2517-4CEE-AA4E-17E3B7949B70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1485,11 +1562,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="241199152"/>
-        <c:axId val="241199544"/>
+        <c:axId val="167155344"/>
+        <c:axId val="167154168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="241199152"/>
+        <c:axId val="167155344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,7 +1579,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241199544"/>
+        <c:crossAx val="167154168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1510,7 +1587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241199544"/>
+        <c:axId val="167154168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241199152"/>
+        <c:crossAx val="167155344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,7 +1626,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1602,6 +1679,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F043-4718-B458-A0FB0D5A5E31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1622,6 +1704,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F043-4718-B458-A0FB0D5A5E31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1634,12 +1721,12 @@
         <c:gapWidth val="100"/>
         <c:gapDepth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="242207616"/>
-        <c:axId val="242208400"/>
+        <c:axId val="167156128"/>
+        <c:axId val="204750648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="242207616"/>
+        <c:axId val="167156128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1738,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242208400"/>
+        <c:crossAx val="204750648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1659,7 +1746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242208400"/>
+        <c:axId val="204750648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1676,7 +1763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242207616"/>
+        <c:crossAx val="167156128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1714,7 +1801,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1749,7 +1842,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1843,6 +1942,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1878,6 +1994,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2053,11 +2186,262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03CF3A0-CD55-4EB1-81DB-88564FF13CD5}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D9000F-3EF8-439D-8E71-0FB183503CE8}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="47">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="47">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="47">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="47">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="47"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="47"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="47"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="47"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="47"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="47"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="47"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="47"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="47"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="47"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="47"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="47"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="47"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="47"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="47"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="47"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,451 +2453,451 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="H3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="19" t="s">
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="38">
+        <v>6.3</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38">
+        <v>8</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38">
+        <v>10</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38">
+        <v>12</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="38">
+        <v>13</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38">
+        <v>15</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="38"/>
+      <c r="C17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38">
+        <v>17</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="38"/>
+      <c r="C19" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44">
-        <v>6.3</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44">
-        <v>8</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44">
-        <v>10</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44">
-        <v>12</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="44">
-        <v>13</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44">
-        <v>15</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44">
-        <v>17</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>88</v>
+      <c r="I19" s="36" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44">
+      <c r="B20" s="38">
         <v>19</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>100</v>
+      <c r="B21" s="38"/>
+      <c r="C21" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44">
+      <c r="B22" s="38">
         <v>21</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>88</v>
+      <c r="B23" s="38"/>
+      <c r="C23" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="44">
+      <c r="B24" s="38">
         <v>23</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>118</v>
+      <c r="B25" s="38"/>
+      <c r="C25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2606,18 +2990,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM9"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -2746,115 +3133,115 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="B3">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>45</v>
@@ -2862,164 +3249,164 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>700</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:AL4" si="0">B4+B3-6.5</f>
-        <v>710</v>
+        <v>693.5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>738.5</v>
+        <v>680.5</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>757</v>
+        <v>674</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>775.5</v>
+        <v>667.5</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>794</v>
+        <v>661</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>812.5</v>
+        <v>654.5</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>831</v>
+        <v>648</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>849.5</v>
+        <v>641.5</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>868</v>
+        <v>635</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>886.5</v>
+        <v>628.5</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>905</v>
+        <v>622</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>923.5</v>
+        <v>615.5</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>942</v>
+        <v>609</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>968.5</v>
+        <v>602.5</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>995</v>
+        <v>596</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>1021.5</v>
+        <v>589.5</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>1048</v>
+        <v>583</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>1074.5</v>
+        <v>576.5</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>1101</v>
+        <v>570</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>1127.5</v>
+        <v>563.5</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>1154</v>
+        <v>557</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>1180.5</v>
+        <v>550.5</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>1207</v>
+        <v>544</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>1233.5</v>
+        <v>537.5</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>1260</v>
+        <v>531</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>1298.5</v>
+        <v>524.5</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>1337</v>
+        <v>518</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>1375.5</v>
+        <v>511.5</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>1414</v>
+        <v>505</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>1452.5</v>
+        <v>498.5</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>1491</v>
+        <v>492</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>1529.5</v>
+        <v>485.5</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="0"/>
-        <v>1568</v>
+        <v>479</v>
       </c>
       <c r="AK4">
         <f t="shared" si="0"/>
-        <v>1606.5</v>
+        <v>472.5</v>
       </c>
       <c r="AL4">
         <f t="shared" si="0"/>
-        <v>1645</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>700</v>
@@ -3170,7 +3557,7 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>700</v>
@@ -3202,306 +3589,306 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="17">
+        <v>100</v>
+      </c>
+      <c r="B8" s="14">
         <f>IF(ISNUMBER($B$7),B7-B4,"")</f>
         <v>0</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <f t="shared" ref="C8:F8" si="2">IF(ISNUMBER(C7),C7-C4,"")</f>
-        <v>-10</v>
-      </c>
-      <c r="D8" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="D8" s="14">
         <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="E8" s="17">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14">
         <f t="shared" si="2"/>
-        <v>-38.5</v>
-      </c>
-      <c r="F8" s="17">
+        <v>19.5</v>
+      </c>
+      <c r="F8" s="14">
         <f t="shared" si="2"/>
-        <v>-57</v>
-      </c>
-      <c r="G8" s="17">
+        <v>26</v>
+      </c>
+      <c r="G8" s="14">
         <f t="shared" ref="G8" si="3">IF(ISNUMBER(G7),G7-G4,"")</f>
-        <v>-75.5</v>
-      </c>
-      <c r="H8" s="17">
+        <v>32.5</v>
+      </c>
+      <c r="H8" s="14">
         <f t="shared" ref="H8" si="4">IF(ISNUMBER(H7),H7-H4,"")</f>
-        <v>-94</v>
-      </c>
-      <c r="I8" s="17">
+        <v>39</v>
+      </c>
+      <c r="I8" s="14">
         <f t="shared" ref="I8" si="5">IF(ISNUMBER(I7),I7-I4,"")</f>
-        <v>-112.5</v>
-      </c>
-      <c r="J8" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="J8" s="14">
         <f t="shared" ref="J8" si="6">IF(ISNUMBER(J7),J7-J4,"")</f>
-        <v>-131</v>
-      </c>
-      <c r="K8" s="17" t="str">
+        <v>52</v>
+      </c>
+      <c r="K8" s="14" t="str">
         <f t="shared" ref="K8" si="7">IF(ISNUMBER(K7),K7-K4,"")</f>
         <v/>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="14" t="str">
         <f t="shared" ref="L8" si="8">IF(ISNUMBER(L7),L7-L4,"")</f>
         <v/>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="14" t="str">
         <f t="shared" ref="M8" si="9">IF(ISNUMBER(M7),M7-M4,"")</f>
         <v/>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="14" t="str">
         <f t="shared" ref="N8" si="10">IF(ISNUMBER(N7),N7-N4,"")</f>
         <v/>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="14" t="str">
         <f t="shared" ref="O8" si="11">IF(ISNUMBER(O7),O7-O4,"")</f>
         <v/>
       </c>
-      <c r="P8" s="17" t="str">
+      <c r="P8" s="14" t="str">
         <f t="shared" ref="P8" si="12">IF(ISNUMBER(P7),P7-P4,"")</f>
         <v/>
       </c>
-      <c r="Q8" s="17" t="str">
+      <c r="Q8" s="14" t="str">
         <f t="shared" ref="Q8" si="13">IF(ISNUMBER(Q7),Q7-Q4,"")</f>
         <v/>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R8" s="14" t="str">
         <f t="shared" ref="R8" si="14">IF(ISNUMBER(R7),R7-R4,"")</f>
         <v/>
       </c>
-      <c r="S8" s="17" t="str">
+      <c r="S8" s="14" t="str">
         <f t="shared" ref="S8" si="15">IF(ISNUMBER(S7),S7-S4,"")</f>
         <v/>
       </c>
-      <c r="T8" s="17" t="str">
+      <c r="T8" s="14" t="str">
         <f t="shared" ref="T8" si="16">IF(ISNUMBER(T7),T7-T4,"")</f>
         <v/>
       </c>
-      <c r="U8" s="17" t="str">
+      <c r="U8" s="14" t="str">
         <f t="shared" ref="U8" si="17">IF(ISNUMBER(U7),U7-U4,"")</f>
         <v/>
       </c>
-      <c r="V8" s="17" t="str">
+      <c r="V8" s="14" t="str">
         <f t="shared" ref="V8" si="18">IF(ISNUMBER(V7),V7-V4,"")</f>
         <v/>
       </c>
-      <c r="W8" s="17" t="str">
+      <c r="W8" s="14" t="str">
         <f t="shared" ref="W8" si="19">IF(ISNUMBER(W7),W7-W4,"")</f>
         <v/>
       </c>
-      <c r="X8" s="17" t="str">
+      <c r="X8" s="14" t="str">
         <f t="shared" ref="X8" si="20">IF(ISNUMBER(X7),X7-X4,"")</f>
         <v/>
       </c>
-      <c r="Y8" s="17" t="str">
+      <c r="Y8" s="14" t="str">
         <f t="shared" ref="Y8" si="21">IF(ISNUMBER(Y7),Y7-Y4,"")</f>
         <v/>
       </c>
-      <c r="Z8" s="17" t="str">
+      <c r="Z8" s="14" t="str">
         <f t="shared" ref="Z8" si="22">IF(ISNUMBER(Z7),Z7-Z4,"")</f>
         <v/>
       </c>
-      <c r="AA8" s="17" t="str">
+      <c r="AA8" s="14" t="str">
         <f t="shared" ref="AA8" si="23">IF(ISNUMBER(AA7),AA7-AA4,"")</f>
         <v/>
       </c>
-      <c r="AB8" s="17" t="str">
+      <c r="AB8" s="14" t="str">
         <f t="shared" ref="AB8" si="24">IF(ISNUMBER(AB7),AB7-AB4,"")</f>
         <v/>
       </c>
-      <c r="AC8" s="17" t="str">
+      <c r="AC8" s="14" t="str">
         <f t="shared" ref="AC8" si="25">IF(ISNUMBER(AC7),AC7-AC4,"")</f>
         <v/>
       </c>
-      <c r="AD8" s="17" t="str">
+      <c r="AD8" s="14" t="str">
         <f t="shared" ref="AD8" si="26">IF(ISNUMBER(AD7),AD7-AD4,"")</f>
         <v/>
       </c>
-      <c r="AE8" s="17" t="str">
+      <c r="AE8" s="14" t="str">
         <f t="shared" ref="AE8" si="27">IF(ISNUMBER(AE7),AE7-AE4,"")</f>
         <v/>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF8" s="14" t="str">
         <f t="shared" ref="AF8" si="28">IF(ISNUMBER(AF7),AF7-AF4,"")</f>
         <v/>
       </c>
-      <c r="AG8" s="17" t="str">
+      <c r="AG8" s="14" t="str">
         <f t="shared" ref="AG8" si="29">IF(ISNUMBER(AG7),AG7-AG4,"")</f>
         <v/>
       </c>
-      <c r="AH8" s="17" t="str">
+      <c r="AH8" s="14" t="str">
         <f t="shared" ref="AH8" si="30">IF(ISNUMBER(AH7),AH7-AH4,"")</f>
         <v/>
       </c>
-      <c r="AI8" s="17" t="str">
+      <c r="AI8" s="14" t="str">
         <f t="shared" ref="AI8" si="31">IF(ISNUMBER(AI7),AI7-AI4,"")</f>
         <v/>
       </c>
-      <c r="AJ8" s="17" t="str">
+      <c r="AJ8" s="14" t="str">
         <f t="shared" ref="AJ8" si="32">IF(ISNUMBER(AJ7),AJ7-AJ4,"")</f>
         <v/>
       </c>
-      <c r="AK8" s="17" t="str">
+      <c r="AK8" s="14" t="str">
         <f t="shared" ref="AK8" si="33">IF(ISNUMBER(AK7),AK7-AK4,"")</f>
         <v/>
       </c>
-      <c r="AL8" s="17" t="str">
+      <c r="AL8" s="14" t="str">
         <f t="shared" ref="AL8" si="34">IF(ISNUMBER(AL7),AL7-AL4,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="18">
+        <v>99</v>
+      </c>
+      <c r="B9" s="15">
         <f>IF(ISNUMBER(B7),B7-B6,"")</f>
         <v>0</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <f t="shared" ref="C9:AL9" si="35">IF(ISNUMBER(C7),C7-C6,"")</f>
         <v>-63.888888888888914</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <f t="shared" si="35"/>
         <v>-127.77777777777783</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <f t="shared" si="35"/>
         <v>-191.66666666666674</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <f t="shared" si="35"/>
         <v>-255.55555555555566</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <f t="shared" si="35"/>
         <v>-319.44444444444457</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="15">
         <f t="shared" si="35"/>
         <v>-383.33333333333348</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <f t="shared" si="35"/>
         <v>-447.2222222222224</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <f t="shared" si="35"/>
         <v>-511.11111111111131</v>
       </c>
-      <c r="K9" s="18" t="str">
+      <c r="K9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M9" s="18" t="str">
+      <c r="M9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N9" s="18" t="str">
+      <c r="N9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="O9" s="18" t="str">
+      <c r="O9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="P9" s="18" t="str">
+      <c r="P9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="Q9" s="18" t="str">
+      <c r="Q9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="R9" s="18" t="str">
+      <c r="R9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="S9" s="18" t="str">
+      <c r="S9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="T9" s="18" t="str">
+      <c r="T9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U9" s="18" t="str">
+      <c r="U9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="V9" s="18" t="str">
+      <c r="V9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="W9" s="18" t="str">
+      <c r="W9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="X9" s="18" t="str">
+      <c r="X9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="Y9" s="18" t="str">
+      <c r="Y9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="Z9" s="18" t="str">
+      <c r="Z9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AA9" s="18" t="str">
+      <c r="AA9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AB9" s="18" t="str">
+      <c r="AB9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AC9" s="18" t="str">
+      <c r="AC9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AD9" s="18" t="str">
+      <c r="AD9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AE9" s="18" t="str">
+      <c r="AE9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AF9" s="18" t="str">
+      <c r="AF9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AG9" s="18" t="str">
+      <c r="AG9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AH9" s="18" t="str">
+      <c r="AH9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AI9" s="18" t="str">
+      <c r="AI9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AJ9" s="18" t="str">
+      <c r="AJ9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AK9" s="18" t="str">
+      <c r="AK9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AL9" s="18" t="str">
+      <c r="AL9" s="15" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -3513,12 +3900,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,299 +3918,255 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="11" t="s">
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>40057</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>41756</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43255</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="6">
+        <v>610</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43582</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43723</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43855</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="C10" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>40057</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="8">
-        <v>23.5</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>41756</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>43255</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="8">
-        <v>610</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9">
-        <v>43582</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C11" s="5">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9">
-        <v>43723</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9">
-        <v>43855</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="F11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="E12" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2023</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2025</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2023</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2028</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2025</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2038</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2028</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2038</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3831,11 +4174,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -3862,57 +4205,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3921,7 +4264,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3930,7 +4273,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3938,12 +4281,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3951,7 +4294,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3959,7 +4302,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3967,7 +4310,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3975,7 +4318,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3983,7 +4326,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3991,7 +4334,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3999,12 +4342,12 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4012,7 +4355,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4020,7 +4363,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4028,7 +4371,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4036,7 +4379,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4044,7 +4387,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4052,7 +4395,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4060,12 +4403,12 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4073,7 +4416,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -4081,7 +4424,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4089,7 +4432,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4097,7 +4440,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4105,12 +4448,12 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4118,7 +4461,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4126,12 +4469,12 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4139,7 +4482,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4147,7 +4490,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4155,7 +4498,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4163,12 +4506,12 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4176,7 +4519,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4184,7 +4527,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4196,11 +4539,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4217,180 +4560,180 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="H3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+        <v>161</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+        <v>162</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+        <v>163</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+        <v>164</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+        <v>80</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+        <v>165</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+        <v>166</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+        <v>167</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+        <v>168</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+        <v>169</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+        <v>170</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4411,8 +4754,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4422,423 +4765,180 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="12" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
-        <v>10</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="41"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>162</v>
-      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4846,14 +4946,257 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A2:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="35"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:S137"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4862,7 +5205,7 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10" style="15" customWidth="1"/>
+    <col min="5" max="6" width="10" style="12" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
@@ -4870,60 +5213,60 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="29">
+        <v>6</v>
+      </c>
+      <c r="H2" s="25">
         <v>43831</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="30">
         <v>43862</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="23">
         <v>43891</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="17">
         <v>43922</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="17">
         <v>43952</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="17">
         <v>43983</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="17">
         <v>44013</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="17">
         <v>44044</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="17">
         <v>44075</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="17">
         <v>44105</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="17">
         <v>44136</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="17">
         <v>44166</v>
       </c>
     </row>
@@ -4932,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3">
         <f>SUM(C9:C137)</f>
@@ -4946,51 +5289,51 @@
         <f>C3-D3</f>
         <v>245</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="18">
         <f t="shared" ref="H3:S3" si="0">SUMIF($E$9:$E$137,H2,$C$9:$C$137)-SUMIF($E$9:$E$137,H2,$D$9:$D$137)</f>
         <v>6.7000000000000028</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="18">
         <f t="shared" si="0"/>
         <v>43.8</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -5000,42 +5343,42 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="31">
+        <v>155</v>
+      </c>
+      <c r="H4" s="18">
         <v>8</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>8</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="18">
         <v>45</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="18">
         <v>18</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="18">
         <v>18</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="18">
         <v>23</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="18">
         <v>23</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="18">
         <v>23</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="18">
         <v>23</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="18">
         <v>23</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="18">
         <v>23</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="18">
         <v>23</v>
       </c>
     </row>
@@ -5044,53 +5387,53 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="31">
+        <v>152</v>
+      </c>
+      <c r="H5" s="18">
         <f>SUMIFS($C$9:$C$137,$E$9:$E$137,H2,$F$9:$F$137,$B5)-SUMIFS($D$9:$D$137,$E$9:$E$137,H2,$F$9:$F$137,$B5)</f>
         <v>6.7000000000000028</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="18">
         <f t="shared" ref="I5:S5" si="1">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B5)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B5)</f>
         <v>3</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="18">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -5099,54 +5442,54 @@
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="31">
+      <c r="B6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="18">
         <f>SUMIFS($C$9:$C$137,$E$9:$E$137,H2,$F$9:$F$137,$B6)-SUMIFS($D$9:$D$137,$E$9:$E$137,H2,$F$9:$F$137,$B6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="18">
         <f t="shared" ref="I6:S6" si="2">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B6)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B6)</f>
         <v>5</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="18">
         <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -5156,53 +5499,53 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="31">
+        <v>153</v>
+      </c>
+      <c r="H7" s="18">
         <f>SUMIFS($C$9:$C$137,$E$9:$E$137,H2,$F$9:$F$137,$B7)-SUMIFS($D$9:$D$137,$E$9:$E$137,H2,$F$9:$F$137,$B7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="18">
         <f t="shared" ref="I7:S7" si="3">SUMIFS($C$9:$C$137,$E$9:$E$137,I2,$F$9:$F$137,$B7)-SUMIFS($D$9:$D$137,$E$9:$E$137,I2,$F$9:$F$137,$B7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="18">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="18">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="18">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="18">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -5212,53 +5555,53 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="31">
+        <v>52</v>
+      </c>
+      <c r="H8" s="18">
         <f>H4-H3</f>
         <v>1.2999999999999972</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="18">
         <f>I4-I3</f>
         <v>0</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="18">
         <f t="shared" ref="J8:S8" si="4">J4-J3</f>
         <v>1.2000000000000028</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="18">
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="18">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="18">
         <f t="shared" si="4"/>
         <v>-9</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="18">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="18">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="18">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="18">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="18">
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
@@ -5268,1434 +5611,1434 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9">
         <f>SUM(H9:S9)</f>
         <v>5</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="20">
         <v>43831</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="26" t="str">
+      <c r="F9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="str">
         <f>IF(C9&gt;D9,"In progress", "Done")</f>
         <v>Done</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="32">
+      <c r="B10" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="27">
         <v>5</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="27">
         <f>SUM(H10:S10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="28">
         <v>43862</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="32" t="str">
+      <c r="F10" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="27" t="str">
         <f>IF(C10&gt;D10,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11">
         <f t="shared" ref="D11:D22" si="5">SUM(H11:S11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="20">
         <v>43891</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="26" t="str">
+      <c r="F11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" ref="G11:G20" si="6">IF(C11&gt;D11,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H11" s="26">
-        <v>0</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="20">
         <v>43922</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="26" t="str">
+      <c r="F12" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H12" s="26">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="20">
         <v>43952</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="26" t="str">
+      <c r="F13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H13" s="26">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="20">
         <v>43983</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="26" t="str">
+      <c r="F14" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H14" s="26">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="20">
         <v>44013</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="26" t="str">
+      <c r="F15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H15" s="26">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="20">
         <v>44044</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="26" t="str">
+      <c r="F16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="str">
         <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H16" s="26">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="20">
         <v>44075</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="26" t="str">
+      <c r="F17" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H17" s="26">
-        <v>0</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="20">
         <v>44105</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="26" t="str">
+      <c r="F18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H18" s="26">
-        <v>0</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="20">
         <v>44136</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="26" t="str">
+      <c r="F19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H19" s="26">
-        <v>0</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="20">
         <v>44166</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="26" t="str">
+      <c r="F20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="6"/>
         <v>In progress</v>
       </c>
-      <c r="H20" s="26">
-        <v>0</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="20">
         <v>43831</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="26" t="str">
+      <c r="F21" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="str">
         <f>IF(C21&gt;D21,"In progress", "Done")</f>
         <v>Done</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="A22" s="27">
         <v>14</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="32">
+      <c r="B22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="27">
         <v>1.3</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="27">
         <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="28">
         <v>43862</v>
       </c>
-      <c r="F22" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="32" t="str">
+      <c r="F22" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="27" t="str">
         <f>IF(C22&gt;D22,"In progress", "Done")</f>
         <v>Done</v>
       </c>
-      <c r="H22" s="32">
-        <v>0</v>
-      </c>
-      <c r="I22" s="40">
+      <c r="H22" s="27">
+        <v>0</v>
+      </c>
+      <c r="I22" s="34">
         <v>1.3</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23">
         <f>SUM(H23:S23)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="20">
         <v>43891</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="26" t="str">
+      <c r="F23" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="str">
         <f>IF(C23&gt;D23,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H23" s="26">
-        <v>0</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24">
         <f t="shared" ref="D24:D44" si="7">SUM(H24:S24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="20">
         <v>43922</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="26" t="str">
+      <c r="F24" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" ref="G24:G44" si="8">IF(C24&gt;D24,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H24" s="26">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="20">
         <v>43952</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="26" t="str">
+      <c r="F25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H25" s="26">
-        <v>0</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="20">
         <v>43983</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="26" t="str">
+      <c r="F26" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H26" s="26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="20">
         <v>44013</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="26" t="str">
+      <c r="F27" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H27" s="26">
-        <v>0</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="20">
         <v>44044</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="26" t="str">
+      <c r="F28" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H28" s="26">
-        <v>0</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="20">
         <v>44075</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="26" t="str">
+      <c r="F29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H29" s="26">
-        <v>0</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="20">
         <v>44105</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="26" t="str">
+      <c r="F30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H30" s="26">
-        <v>0</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="20">
         <v>44136</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="26" t="str">
+      <c r="F31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H31" s="26">
-        <v>0</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="20">
         <v>44166</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="26" t="str">
+      <c r="F32" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H32" s="26">
-        <v>0</v>
-      </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="20">
         <v>43831</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33" s="26" t="str">
+      <c r="F33" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="8"/>
         <v>Done</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="27">
         <v>26</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="32">
+      <c r="B34" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="27">
         <v>2</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="28">
         <v>43862</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="32" t="str">
+      <c r="F34" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="27" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H34" s="32">
-        <v>0</v>
-      </c>
-      <c r="I34" s="40">
-        <v>0</v>
-      </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
+      <c r="H34" s="27">
+        <v>0</v>
+      </c>
+      <c r="I34" s="34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="20">
         <v>43891</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="26" t="str">
+      <c r="F35" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H35" s="26">
-        <v>0</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="20">
         <v>43922</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="26" t="str">
+      <c r="F36" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H36" s="26">
-        <v>0</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="20">
         <v>43952</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="26" t="str">
+      <c r="F37" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H37" s="26">
-        <v>0</v>
-      </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="20">
         <v>43983</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" s="26" t="str">
+      <c r="F38" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H38" s="26">
-        <v>0</v>
-      </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="20">
         <v>44013</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="26" t="str">
+      <c r="F39" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H39" s="26">
-        <v>0</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="20">
         <v>44044</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G40" s="26" t="str">
+      <c r="F40" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H40" s="26">
-        <v>0</v>
-      </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="20">
         <v>44075</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" s="26" t="str">
+      <c r="F41" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H41" s="26">
-        <v>0</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="20">
         <v>44105</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G42" s="26" t="str">
+      <c r="F42" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H42" s="26">
-        <v>0</v>
-      </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="20">
         <v>44136</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" s="26" t="str">
+      <c r="F43" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H43" s="26">
-        <v>0</v>
-      </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="20">
         <v>44166</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G44" s="26" t="str">
+      <c r="F44" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" t="str">
         <f t="shared" si="8"/>
         <v>In progress</v>
       </c>
-      <c r="H44" s="26">
-        <v>0</v>
-      </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>37</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="26">
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45">
         <v>30</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45">
         <f>SUM(H45:S45)</f>
         <v>29</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="20">
         <v>43831</v>
       </c>
-      <c r="F45" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G45" s="26" t="str">
+      <c r="F45" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" t="str">
         <f>IF(C45&gt;D45,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45">
         <v>29</v>
       </c>
     </row>
@@ -6703,27 +7046,27 @@
       <c r="A46">
         <v>38</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="28">
+      <c r="B46" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="24">
         <v>19</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="24">
         <f>SUM(H46:S46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="32">
         <v>43891</v>
       </c>
-      <c r="F46" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="28" t="str">
+      <c r="F46" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="24" t="str">
         <f t="shared" ref="G46:G60" si="9">IF(C46&gt;D46,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="24">
         <v>0</v>
       </c>
     </row>
@@ -6731,27 +7074,27 @@
       <c r="A47">
         <v>39</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="30">
+      <c r="B47" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="26">
         <v>2</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="26">
         <f>SUM(I52:S52)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="29">
         <v>43831</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="30" t="str">
+      <c r="F47" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="26" t="str">
         <f>IF(C47&gt;D47,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6759,204 +7102,204 @@
       <c r="A48">
         <v>40</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="30">
+      <c r="B48" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="26">
         <v>2</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="26">
         <f>SUM(I53:S53)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="29">
         <v>43831</v>
       </c>
-      <c r="F48" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="30" t="str">
+      <c r="F48" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="26" t="str">
         <f>IF(C48&gt;D48,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H48" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H48" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="30">
+      <c r="B49" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="26">
         <v>1</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="26">
         <f t="shared" ref="D49:D69" si="10">SUM(H49:S49)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="29">
         <v>43831</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" s="30" t="str">
+      <c r="F49" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="26" t="str">
         <f>IF(C49&gt;D49,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H49" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="30">
+      <c r="B50" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="26">
         <v>0.5</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="29">
         <v>43831</v>
       </c>
-      <c r="F50" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" s="30" t="str">
+      <c r="F50" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="26" t="str">
         <f>IF(C50&gt;D50,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H50" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H50" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="30">
+      <c r="B51" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="26">
         <v>4</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="26">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="E51" s="34">
+      <c r="E51" s="29">
         <v>43831</v>
       </c>
-      <c r="F51" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G51" s="30" t="str">
+      <c r="F51" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" s="26" t="str">
         <f t="shared" si="9"/>
         <v>Done</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>44</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="30">
+      <c r="B52" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="26">
         <v>0.1</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="29">
         <v>43831</v>
       </c>
-      <c r="F52" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" s="30" t="str">
+      <c r="F52" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="26" t="str">
         <f>IF(C52&gt;D52,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H52" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H52" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>45</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="30">
+      <c r="B53" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="26">
         <v>0.1</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E53" s="29">
         <v>43831</v>
       </c>
-      <c r="F53" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G53" s="30" t="str">
+      <c r="F53" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="26" t="str">
         <f>IF(C53&gt;D53,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H53" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H53" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>46</v>
       </c>
-      <c r="B54" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="30">
+      <c r="B54" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="26">
         <v>0.5</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="26">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="29">
         <v>43831</v>
       </c>
-      <c r="F54" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G54" s="30" t="str">
+      <c r="F54" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="26" t="str">
         <f t="shared" si="9"/>
         <v>Done</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55">
         <v>15</v>
@@ -6965,26 +7308,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="20">
         <v>44013</v>
       </c>
-      <c r="F55" s="23" t="s">
-        <v>155</v>
+      <c r="F55" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H55" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -6993,94 +7336,93 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="20">
         <v>43922</v>
       </c>
-      <c r="F56" s="23" t="s">
-        <v>155</v>
+      <c r="F56" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H56" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>49</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="24">
+      <c r="B57" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="21">
         <v>1.5</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="24" t="str">
+      <c r="E57" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="21" t="str">
         <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H57" s="26">
-        <v>0</v>
-      </c>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="26"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
-      <c r="B58" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" s="28">
+      <c r="B58" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="24">
         <v>8</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D58" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="32">
         <v>43891</v>
       </c>
-      <c r="F58" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" s="28" t="str">
+      <c r="F58" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="24" t="str">
         <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H58" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H58" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C59">
         <v>12</v>
@@ -7089,54 +7431,54 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="20">
         <v>44166</v>
       </c>
-      <c r="F59" s="23" t="s">
-        <v>154</v>
+      <c r="F59" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H59" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>52</v>
       </c>
-      <c r="B60" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="28">
+      <c r="B60" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="24">
         <v>3.8</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D60" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E60" s="32">
         <v>43891</v>
       </c>
-      <c r="F60" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="28" t="str">
+      <c r="F60" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60" s="24" t="str">
         <f t="shared" si="9"/>
         <v>In progress</v>
       </c>
-      <c r="H60" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H60" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -7145,26 +7487,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="20">
         <v>43952</v>
       </c>
-      <c r="F61" s="23" t="s">
-        <v>154</v>
+      <c r="F61" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" ref="G61:G69" si="11">IF(C61&gt;D61,"In progress", "Done")</f>
         <v>In progress</v>
       </c>
-      <c r="H61" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -7173,26 +7515,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="20">
         <v>43983</v>
       </c>
-      <c r="F62" s="23" t="s">
-        <v>154</v>
+      <c r="F62" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H62" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -7201,26 +7543,26 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="20">
         <v>44013</v>
       </c>
-      <c r="F63" s="23" t="s">
-        <v>154</v>
+      <c r="F63" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H63" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -7229,17 +7571,17 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="20">
         <v>44044</v>
       </c>
-      <c r="F64" s="23" t="s">
-        <v>154</v>
+      <c r="F64" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H64" s="26">
+      <c r="H64">
         <v>0</v>
       </c>
     </row>
@@ -7248,7 +7590,7 @@
         <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -7257,17 +7599,17 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="20">
         <v>44075</v>
       </c>
-      <c r="F65" s="23" t="s">
-        <v>154</v>
+      <c r="F65" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H65" s="26">
+      <c r="H65">
         <v>0</v>
       </c>
     </row>
@@ -7276,7 +7618,7 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -7285,17 +7627,17 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="20">
         <v>44105</v>
       </c>
-      <c r="F66" s="23" t="s">
-        <v>154</v>
+      <c r="F66" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H66" s="26">
+      <c r="H66">
         <v>0</v>
       </c>
     </row>
@@ -7304,7 +7646,7 @@
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -7313,17 +7655,17 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="20">
         <v>44136</v>
       </c>
-      <c r="F67" s="23" t="s">
-        <v>154</v>
+      <c r="F67" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H67" s="26">
+      <c r="H67">
         <v>0</v>
       </c>
     </row>
@@ -7332,7 +7674,7 @@
         <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -7341,17 +7683,17 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="20">
         <v>44166</v>
       </c>
-      <c r="F68" s="23" t="s">
-        <v>154</v>
+      <c r="F68" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H68" s="26">
+      <c r="H68">
         <v>0</v>
       </c>
     </row>
@@ -7359,336 +7701,308 @@
       <c r="A69">
         <v>61</v>
       </c>
-      <c r="B69" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="32">
+      <c r="B69" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="27">
         <v>1</v>
       </c>
-      <c r="D69" s="32">
+      <c r="D69" s="27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E69" s="36">
+      <c r="E69" s="31">
         <v>43862</v>
       </c>
-      <c r="F69" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="G69" s="32" t="str">
+      <c r="F69" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69" s="27" t="str">
         <f t="shared" si="11"/>
         <v>In progress</v>
       </c>
-      <c r="H69" s="32">
-        <v>0</v>
-      </c>
-      <c r="I69" s="32">
+      <c r="H69" s="27">
+        <v>0</v>
+      </c>
+      <c r="I69" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
     </row>
     <row r="114" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
     </row>
     <row r="120" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
     </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
     </row>
     <row r="122" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
     </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
     </row>
     <row r="124" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
     </row>
     <row r="126" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
     </row>
     <row r="127" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
     </row>
     <row r="128" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
     </row>
     <row r="131" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
     </row>
     <row r="133" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
     </row>
     <row r="134" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
     </row>
     <row r="135" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
     </row>
     <row r="136" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="23"/>
-      <c r="F136" s="23"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
     </row>
     <row r="137" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S69"/>
+  <autoFilter ref="A2:S69" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>